--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="8595" tabRatio="648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="3" r:id="rId1"/>
@@ -648,7 +648,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -749,6 +749,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -833,6 +839,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
@@ -1494,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1557,7 +1567,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3"/>
@@ -1584,306 +1594,314 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+      <c r="B4" s="92"/>
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="17">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="4">
+      <c r="J4" s="17">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="93" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="B5" s="92"/>
+      <c r="C5" s="17">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="17">
         <v>8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="17">
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="4">
+      <c r="J5" s="17">
         <v>8</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="93" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+      <c r="B6" s="92"/>
+      <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="4">
+      <c r="J6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="93" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
+      <c r="B7" s="92"/>
+      <c r="C7" s="17">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="17">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <v>4</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="4">
+      <c r="J7" s="17">
         <v>4</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="93" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
+      <c r="B8" s="92"/>
+      <c r="C8" s="17">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <v>8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>8</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="4">
+      <c r="J8" s="17">
         <v>8</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="93" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4">
+      <c r="B9" s="92"/>
+      <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="17">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="4">
+      <c r="J9" s="17">
         <v>4</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4">
+      <c r="B10" s="92"/>
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="17">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="4">
+      <c r="J10" s="17">
         <v>4</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="93" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>80</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="17">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
+        <v>8</v>
+      </c>
+      <c r="E11" s="17">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17">
+        <v>8</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="17">
+        <v>8</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="27"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="27"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1896,7 +1914,7 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2019,7 +2037,7 @@
       </c>
       <c r="D29" s="8">
         <f>SUMIF(K3:K25,D28,J3:J25)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E29" s="8">
         <f>SUMIF(K3:K25,E28,J3:J25)</f>
@@ -2039,7 +2057,7 @@
       </c>
       <c r="J29" s="1">
         <f>SUM(J3:J25)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5" thickBot="1"/>
@@ -2050,1072 +2068,1072 @@
       <c r="B31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" thickBot="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="13.5" thickBot="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="20"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="20"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="72"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="75"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="72"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="72"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="72"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="20"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="75"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="72"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="75"/>
     </row>
     <row r="76" spans="1:8" ht="15">
       <c r="A76" s="61"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
     </row>
     <row r="77" spans="1:8" ht="15">
       <c r="A77" s="61"/>
       <c r="B77" s="61"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
     </row>
     <row r="78" spans="1:8" ht="15">
       <c r="A78" s="61"/>
       <c r="B78" s="61"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="1:8" ht="25.5" customHeight="1">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="75"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="72"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="72"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="72"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="75"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="72"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="72"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="72"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="75"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="72"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="70"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="72"/>
     </row>
     <row r="91" spans="1:8" ht="13.5" thickBot="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="75"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="72"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="75"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="66"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="66"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="66"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="69"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="86"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="87"/>
+      <c r="H102" s="88"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="82"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="91"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="60"/>
       <c r="B105" s="60"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="91"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="89"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="91"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="60"/>
       <c r="B107" s="60"/>
-      <c r="C107" s="87"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
+      <c r="H107" s="91"/>
     </row>
     <row r="108" spans="1:8" ht="13.5" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="58"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="85"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="86"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="88"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
-      <c r="C110" s="78"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="81"/>
+      <c r="H110" s="82"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="81"/>
+      <c r="H111" s="82"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="85"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87"/>
+      <c r="H113" s="88"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="80"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="81"/>
+      <c r="H114" s="82"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81"/>
+      <c r="H115" s="82"/>
     </row>
     <row r="116" spans="1:8" ht="13.5" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="58"/>
-      <c r="C116" s="81"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="82"/>
-      <c r="H116" s="83"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="85"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="88"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
-      <c r="C118" s="78"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="82"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
-      <c r="C119" s="78"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="82"/>
     </row>
     <row r="120" spans="1:8" ht="13.5" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="58"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="83"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="85"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="20"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="86"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="87"/>
+      <c r="H121" s="88"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="81"/>
+      <c r="H122" s="82"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="82"/>
     </row>
     <row r="124" spans="1:8" ht="13.5" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="58"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="83"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84"/>
+      <c r="H124" s="85"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="87"/>
+      <c r="E125" s="87"/>
+      <c r="F125" s="87"/>
+      <c r="G125" s="87"/>
+      <c r="H125" s="88"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
-      <c r="C126" s="78"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="80"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="82"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="80"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="82"/>
     </row>
     <row r="128" spans="1:8" ht="13.5" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="58"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="83"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="84"/>
+      <c r="G128" s="84"/>
+      <c r="H128" s="85"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
-      <c r="C129" s="84"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="85"/>
-      <c r="H129" s="86"/>
+      <c r="C129" s="86"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="87"/>
+      <c r="G129" s="87"/>
+      <c r="H129" s="88"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="80"/>
+      <c r="C130" s="80"/>
+      <c r="D130" s="81"/>
+      <c r="E130" s="81"/>
+      <c r="F130" s="81"/>
+      <c r="G130" s="81"/>
+      <c r="H130" s="82"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="79"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="79"/>
-      <c r="G131" s="79"/>
-      <c r="H131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="58"/>
-      <c r="C132" s="81"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="83"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="85"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="84"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="85"/>
-      <c r="G133" s="85"/>
-      <c r="H133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="87"/>
+      <c r="F133" s="87"/>
+      <c r="G133" s="87"/>
+      <c r="H133" s="88"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
-      <c r="C134" s="78"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81"/>
+      <c r="G134" s="81"/>
+      <c r="H134" s="82"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
-      <c r="C135" s="78"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="79"/>
-      <c r="H135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="82"/>
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="58"/>
-      <c r="C136" s="81"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="83"/>
+      <c r="C136" s="83"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="84"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="85"/>
     </row>
   </sheetData>
   <sortState ref="A8:A14">

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="8595" tabRatio="648" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>User Stories</t>
   </si>
@@ -236,25 +236,97 @@
     <t>Earth Enemies decide which player to attack based on Distance.</t>
   </si>
   <si>
-    <t>As a user I want to be able play in multiplayer one</t>
-  </si>
-  <si>
     <t>As a designer, I want an attract mode that attracts people.</t>
   </si>
   <si>
-    <t>As a developer I want the tier 1 fire spells done</t>
-  </si>
-  <si>
-    <t>As a developer I want the tier 1 ice spells done</t>
-  </si>
-  <si>
-    <t>As a developer I want the tier 1 wind spells done</t>
-  </si>
-  <si>
-    <t>As a developer I want the particle engine to be complete</t>
-  </si>
-  <si>
     <t>As a user, I would like to have a HUD.</t>
+  </si>
+  <si>
+    <t>As a user, I want to play different multiplayer game modes such as co-op and death-match</t>
+  </si>
+  <si>
+    <t>As a designer, I want the player to hit switches to progress through the level</t>
+  </si>
+  <si>
+    <t>As a developer, I want the enemy spawner to respawn enemies</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to implement a scoring system based on time and destruction</t>
+  </si>
+  <si>
+    <t>As a designer, I want spells to increase in power the more you use that type of spell</t>
+  </si>
+  <si>
+    <t>As a developer, I want Lava terrain to hurt the player</t>
+  </si>
+  <si>
+    <t>As a user, I want the state of the terrain to be saved</t>
+  </si>
+  <si>
+    <t>As a user, I want multiple ice spells</t>
+  </si>
+  <si>
+    <t>As a user, I want multiple wind spells</t>
+  </si>
+  <si>
+    <t>As a user, I want multiple fire spells</t>
+  </si>
+  <si>
+    <t>As a user, I want multiple earth spells</t>
+  </si>
+  <si>
+    <t>As a user, I want the spells of different elements to interact with each other</t>
+  </si>
+  <si>
+    <t>As a user, I want my spells to cancel out hostile spells</t>
+  </si>
+  <si>
+    <t>As a user, I want my option configurations saved auto-magically</t>
+  </si>
+  <si>
+    <t>As a designer, I want the enemies to be effected differently based on their type and spell type</t>
+  </si>
+  <si>
+    <t>As a user, I want the spells to have effects on the alternate terrain</t>
+  </si>
+  <si>
+    <t>As an Everyman, I want the enemies to behave differently</t>
+  </si>
+  <si>
+    <t>As a designer, I want a final boss, decided by how quickly the player gets to the end.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the game to be arcade machine compliant</t>
+  </si>
+  <si>
+    <t>As a developer, I want water terrain to hurt the player and flood the level</t>
+  </si>
+  <si>
+    <t>As a developer, I want the Air Currents in the game that push the player around</t>
+  </si>
+  <si>
+    <t>As a developer, I want the particle engine to be complete</t>
+  </si>
+  <si>
+    <t>As a developer, I want the tier 1 fire spells done</t>
+  </si>
+  <si>
+    <t>As a developer, I want the tier 1 ice spells done</t>
+  </si>
+  <si>
+    <t>As a developer, I want the tier 1 wind spells done</t>
+  </si>
+  <si>
+    <t>As a developer, I want tier 2 spells to rely on energy picked up in the game</t>
+  </si>
+  <si>
+    <t>As a user, I want to transition between levels</t>
+  </si>
+  <si>
+    <t>As a user, I want a free-fire mode while using the game pad</t>
+  </si>
+  <si>
+    <t>As a developer, I want to implement a win/lose condition</t>
   </si>
 </sst>
 </file>
@@ -648,7 +720,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -749,12 +821,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -839,10 +905,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
@@ -1502,10 +1564,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1567,341 +1629,249 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="62" t="s">
-        <v>63</v>
+      <c r="A3" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="2">
-        <v>8</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>54</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="17">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <v>2</v>
-      </c>
-      <c r="K4" s="93" t="s">
-        <v>52</v>
-      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="17">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17">
-        <v>8</v>
-      </c>
-      <c r="E5" s="17">
-        <v>8</v>
-      </c>
-      <c r="F5" s="17">
-        <v>8</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="17">
-        <v>8</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>55</v>
-      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="17">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17">
-        <v>8</v>
-      </c>
-      <c r="F6" s="17">
-        <v>8</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="17">
-        <v>4</v>
-      </c>
-      <c r="K6" s="93" t="s">
-        <v>53</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="17">
-        <v>4</v>
-      </c>
-      <c r="D7" s="17">
-        <v>4</v>
-      </c>
-      <c r="E7" s="17">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>4</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="17">
-        <v>4</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>55</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="17">
-        <v>8</v>
-      </c>
-      <c r="D8" s="17">
-        <v>8</v>
-      </c>
-      <c r="E8" s="17">
-        <v>8</v>
-      </c>
-      <c r="F8" s="17">
-        <v>8</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17">
-        <v>8</v>
-      </c>
-      <c r="K8" s="93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="17">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
-        <v>4</v>
-      </c>
-      <c r="K9" s="93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="17">
-        <v>4</v>
-      </c>
-      <c r="D10" s="17">
-        <v>8</v>
-      </c>
-      <c r="E10" s="17">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17">
-        <v>4</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17">
-        <v>4</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="17">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17">
-        <v>8</v>
-      </c>
-      <c r="E11" s="17">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17">
-        <v>8</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17">
-        <v>8</v>
-      </c>
-      <c r="K11" s="93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="93"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="63"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="93"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="63"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="93"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="63"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="93"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="63"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="93"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="93"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="93"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="63"/>
+      <c r="A19" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1914,7 +1884,9 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63"/>
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1927,7 +1899,9 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1940,7 +1914,9 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1953,7 +1929,9 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1966,7 +1944,9 @@
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1979,7 +1959,9 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1991,1245 +1973,1330 @@
       <c r="J25" s="4"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A37" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C27" s="53" t="s">
+    <row r="38" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C38" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C28" s="14" t="str">
-        <f t="shared" ref="C28:H28" si="0">C2</f>
+    <row r="39" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C39" s="14" t="str">
+        <f t="shared" ref="C39:H39" si="0">C2</f>
         <v>Jonathon Caro</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Mike Hatter</v>
       </c>
-      <c r="E28" s="14" t="str">
+      <c r="E39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Pablo Leon</v>
       </c>
-      <c r="F28" s="14" t="str">
+      <c r="F39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Sam Mathis</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G39" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H39" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J39" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" thickBot="1">
-      <c r="C29" s="8">
-        <f>SUMIF(K3:K25,C28,J3:J25)</f>
-        <v>6</v>
-      </c>
-      <c r="D29" s="8">
-        <f>SUMIF(K3:K25,D28,J3:J25)</f>
-        <v>20</v>
-      </c>
-      <c r="E29" s="8">
-        <f>SUMIF(K3:K25,E28,J3:J25)</f>
+    <row r="40" spans="1:11" ht="13.5" thickBot="1">
+      <c r="C40" s="8">
+        <f>SUMIF(K3:K36,C39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <f>SUMIF(K3:K36,D39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <f>SUMIF(K3:K36,E39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <f>SUMIF(K3:K36,F39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <f>SUMIF(K3:K36,G39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f>SUMIF(K3:K36,H39,J3:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <f>SUM(J3:J36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="42" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A42" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="8">
-        <f>SUMIF(K3:K25,F28,J3:J25)</f>
-        <v>12</v>
-      </c>
-      <c r="G29" s="8">
-        <f>SUMIF(K3:K25,G28,J3:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>SUMIF(K3:K25,H28,J3:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <f>SUM(J3:J25)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="31" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A31" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="59" t="s">
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.5" thickBot="1">
+      <c r="B43" s="24"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="73"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="20"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
+      <c r="C44" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="70"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="70"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="73"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="70"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="67"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="70"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="20"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="70"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="72"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.5" thickBot="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="72"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="70"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="20"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="73"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="73"/>
+      <c r="A57"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="74"/>
-      <c r="H57" s="75"/>
+      <c r="H57" s="74"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72"/>
+      <c r="A58"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="72"/>
+      <c r="A59"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="72"/>
+      <c r="A60"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="72"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="72"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="75"/>
+      <c r="A61"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="70"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="72"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="73"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="72"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="72"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="20"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="75"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="70"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="70"/>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="70"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="73"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="72"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="72"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="70"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="70"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="75"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="70"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="C72" s="68"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="70"/>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" thickBot="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="72"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="72"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="70"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="73"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="75"/>
-    </row>
-    <row r="76" spans="1:8" ht="15">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-    </row>
-    <row r="77" spans="1:8" ht="15">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-    </row>
-    <row r="78" spans="1:8" ht="15">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-    </row>
-    <row r="80" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="75"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="70"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="70"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="70"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="20"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="73"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="70"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="70"/>
+    </row>
+    <row r="81" spans="1:8" ht="13.5" thickBot="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="72"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="70"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="72"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="72"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="73"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="70"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="75"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="70"/>
+    </row>
+    <row r="85" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="70"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="72"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="73"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="73"/>
+    </row>
+    <row r="87" spans="1:8" ht="15">
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+    </row>
+    <row r="88" spans="1:8" ht="15">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="74"/>
       <c r="E88" s="74"/>
       <c r="F88" s="74"/>
       <c r="G88" s="74"/>
-      <c r="H88" s="75"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="72"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="72"/>
-    </row>
-    <row r="91" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
+      <c r="H88" s="74"/>
+    </row>
+    <row r="89" spans="1:8" ht="15">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+    </row>
+    <row r="91" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="73"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="75"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="70"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="72"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="70"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="72"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="70"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="75"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="73"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="66"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="70"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="66"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="66"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="70"/>
+    </row>
+    <row r="98" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="70"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="66"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="73"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="66"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="69"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="87"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="87"/>
-      <c r="H102" s="88"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="70"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="70"/>
+    </row>
+    <row r="102" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="70"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="82"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="73"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="91"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="91"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="70"/>
+    </row>
+    <row r="105" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="70"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="60"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="91"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="73"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="91"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="84"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="85"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="64"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="87"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="88"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="82"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="64"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="81"/>
-      <c r="H111" s="82"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="84"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="85"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="67"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="87"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="88"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="86"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="80"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="82"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="80"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="82"/>
-    </row>
-    <row r="116" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="85"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="88"/>
+      <c r="E115" s="88"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="88"/>
+      <c r="H115" s="89"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="88"/>
+      <c r="E116" s="88"/>
+      <c r="F116" s="88"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="89"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="87"/>
-      <c r="G117" s="87"/>
-      <c r="H117" s="88"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="88"/>
+      <c r="E117" s="88"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="88"/>
+      <c r="H117" s="89"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="81"/>
-      <c r="H118" s="82"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="82"/>
-    </row>
-    <row r="120" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="83"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="85"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="88"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="88"/>
+      <c r="H118" s="89"/>
+    </row>
+    <row r="119" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="82"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="83"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="86"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
-      <c r="G121" s="87"/>
-      <c r="H121" s="88"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="80"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="82"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="57"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="82"/>
-    </row>
-    <row r="124" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="84"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="85"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="80"/>
+    </row>
+    <row r="123" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="81"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="83"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="86"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="87"/>
-      <c r="E125" s="87"/>
-      <c r="F125" s="87"/>
-      <c r="G125" s="87"/>
-      <c r="H125" s="88"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="80"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
-      <c r="C126" s="80"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="82"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="80"/>
-      <c r="D127" s="81"/>
-      <c r="E127" s="81"/>
-      <c r="F127" s="81"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="82"/>
-    </row>
-    <row r="128" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A128" s="58"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="84"/>
-      <c r="E128" s="84"/>
-      <c r="F128" s="84"/>
-      <c r="G128" s="84"/>
-      <c r="H128" s="85"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="80"/>
+    </row>
+    <row r="127" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="81"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="83"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="86"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="86"/>
-      <c r="D129" s="87"/>
-      <c r="E129" s="87"/>
-      <c r="F129" s="87"/>
-      <c r="G129" s="87"/>
-      <c r="H129" s="88"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="80"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
-      <c r="C130" s="80"/>
-      <c r="D130" s="81"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="81"/>
-      <c r="H130" s="82"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="81"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="82"/>
-    </row>
-    <row r="132" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A132" s="58"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="84"/>
-      <c r="E132" s="84"/>
-      <c r="F132" s="84"/>
-      <c r="G132" s="84"/>
-      <c r="H132" s="85"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="80"/>
+    </row>
+    <row r="131" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="83"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="84"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="86"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="87"/>
-      <c r="F133" s="87"/>
-      <c r="G133" s="87"/>
-      <c r="H133" s="88"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="79"/>
+      <c r="H133" s="80"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
-      <c r="C134" s="80"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="81"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="82"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="80"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="82"/>
-    </row>
-    <row r="136" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A136" s="58"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="83"/>
-      <c r="D136" s="84"/>
-      <c r="E136" s="84"/>
-      <c r="F136" s="84"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="85"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="80"/>
+    </row>
+    <row r="135" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="82"/>
+      <c r="E135" s="82"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="82"/>
+      <c r="H135" s="83"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="84"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="86"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="57"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="80"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="57"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="80"/>
+    </row>
+    <row r="139" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A139" s="58"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="82"/>
+      <c r="E139" s="82"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="82"/>
+      <c r="H139" s="83"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="84"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="86"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="80"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="57"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="80"/>
+    </row>
+    <row r="143" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="82"/>
+      <c r="H143" s="83"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="84"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="86"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="57"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="80"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="57"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="80"/>
+    </row>
+    <row r="147" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A147" s="58"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="83"/>
     </row>
   </sheetData>
-  <sortState ref="A8:A14">
-    <sortCondition ref="A14"/>
+  <sortState ref="A19:A34">
+    <sortCondition ref="A19"/>
   </sortState>
   <mergeCells count="106">
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
     <mergeCell ref="C87:H87"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
     <mergeCell ref="C69:H69"/>
     <mergeCell ref="C70:H70"/>
@@ -3237,7 +3304,77 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
     <mergeCell ref="C81:H81"/>
@@ -3245,14 +3382,22 @@
     <mergeCell ref="C83:H83"/>
     <mergeCell ref="C84:H84"/>
     <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K36">
       <formula1>student_names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J25 C3:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H36 J3:J36">
       <formula1>value_in_hours</formula1>
     </dataValidation>
   </dataValidations>

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>User Stories</t>
   </si>
@@ -218,24 +218,9 @@
     <t>As a user, I want the camera to function properly when playing with two players.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to play with a friend… no homo.</t>
-  </si>
-  <si>
     <t>As a user, I want the earth enemies to decide which player to attack when playing with two players.</t>
   </si>
   <si>
-    <t>If player goes off screen, is brought back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Players shouldn’t fall off the screen. </t>
-  </si>
-  <si>
-    <t>Two playable characters can be controlled independantly of each other.</t>
-  </si>
-  <si>
-    <t>Earth Enemies decide which player to attack based on Distance.</t>
-  </si>
-  <si>
     <t>As a designer, I want an attract mode that attracts people.</t>
   </si>
   <si>
@@ -327,6 +312,9 @@
   </si>
   <si>
     <t>As a developer, I want to implement a win/lose condition</t>
+  </si>
+  <si>
+    <t>As a user, I want a mini-map to help me get around the level</t>
   </si>
 </sst>
 </file>
@@ -336,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -388,16 +376,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,13 +408,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -693,23 +668,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -718,9 +678,8 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -758,9 +717,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +776,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -830,6 +797,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -839,75 +869,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1231,16 +1194,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1254,7 +1217,7 @@
       <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1268,7 +1231,7 @@
       <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1282,7 +1245,7 @@
       <c r="D4" s="10">
         <v>8</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1294,7 +1257,7 @@
       <c r="D5" s="10">
         <v>12</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1308,7 +1271,7 @@
       <c r="D6" s="10">
         <v>16</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -1320,7 +1283,7 @@
       <c r="D7" s="10">
         <v>40</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
@@ -1332,7 +1295,7 @@
       <c r="D8" s="10">
         <v>80</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1">
       <c r="A9" s="6" t="s">
@@ -1344,11 +1307,11 @@
       <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="12" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1445,108 +1408,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="39" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="20.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" thickTop="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickTop="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="16" spans="1:3" ht="13.5" thickTop="1"/>
   </sheetData>
@@ -1564,10 +1527,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1581,13 +1544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1624,13 +1587,13 @@
       <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="59" t="s">
-        <v>89</v>
+      <c r="A3" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -1641,11 +1604,11 @@
       <c r="H3" s="2"/>
       <c r="I3" s="17"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="26"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1656,11 +1619,11 @@
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1671,11 +1634,11 @@
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="27"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1686,11 +1649,11 @@
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1701,11 +1664,11 @@
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1716,11 +1679,11 @@
       <c r="H8" s="4"/>
       <c r="I8" s="17"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1731,11 +1694,11 @@
       <c r="H9" s="4"/>
       <c r="I9" s="17"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1746,11 +1709,11 @@
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1761,11 +1724,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="17"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1776,11 +1739,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1791,11 +1754,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1806,11 +1769,11 @@
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="27"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1821,11 +1784,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1836,11 +1799,11 @@
       <c r="H16" s="4"/>
       <c r="I16" s="17"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1851,11 +1814,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -1866,11 +1829,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
@@ -1881,11 +1844,11 @@
       <c r="H19" s="4"/>
       <c r="I19" s="17"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -1896,11 +1859,11 @@
       <c r="H20" s="4"/>
       <c r="I20" s="17"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="27"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -1911,11 +1874,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="17"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1926,11 +1889,11 @@
       <c r="H22" s="4"/>
       <c r="I22" s="17"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1941,11 +1904,11 @@
       <c r="H23" s="4"/>
       <c r="I23" s="17"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1956,11 +1919,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="17"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -1971,11 +1934,11 @@
       <c r="H25" s="4"/>
       <c r="I25" s="17"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="27"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -1986,11 +1949,11 @@
       <c r="H26" s="4"/>
       <c r="I26" s="17"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="27"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -2001,11 +1964,11 @@
       <c r="H27" s="4"/>
       <c r="I27" s="17"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="27"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -2016,11 +1979,11 @@
       <c r="H28" s="4"/>
       <c r="I28" s="17"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="27"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -2031,7 +1994,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="17"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2046,11 +2009,11 @@
       <c r="H30" s="4"/>
       <c r="I30" s="17"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -2061,11 +2024,11 @@
       <c r="H31" s="4"/>
       <c r="I31" s="17"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2076,11 +2039,11 @@
       <c r="H32" s="4"/>
       <c r="I32" s="17"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -2091,11 +2054,11 @@
       <c r="H33" s="4"/>
       <c r="I33" s="17"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="27"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
@@ -2106,11 +2069,11 @@
       <c r="H34" s="4"/>
       <c r="I34" s="17"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="27"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -2121,10 +2084,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="17"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="27"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2134,15 +2099,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="17"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="27"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="52" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2171,7 +2136,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="52" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2207,1152 +2172,1558 @@
     </row>
     <row r="41" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="42" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
+      <c r="A43" s="20" t="str">
+        <f>A3</f>
+        <v>As a designer, I want a final boss, decided by how quickly the player gets to the end.</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="73"/>
+      <c r="A47" s="20" t="str">
+        <f>A4</f>
+        <v>As a designer, I want an attract mode that attracts people.</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="73"/>
+      <c r="A51" s="20" t="str">
+        <f>A5</f>
+        <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" thickBot="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="20"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="73"/>
+      <c r="A56" s="20" t="str">
+        <f>A6</f>
+        <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="69"/>
+    </row>
+    <row r="59" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
+      <c r="A60" s="20" t="str">
+        <f>A7</f>
+        <v>As a designer, I want the player to hit switches to progress through the level</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="69"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="20"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="73"/>
+      <c r="A64" s="20" t="str">
+        <f>A8</f>
+        <v>As a developer, I want Lava terrain to hurt the player</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="69"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="70"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="69"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="73"/>
+      <c r="A68" s="20" t="str">
+        <f>A9</f>
+        <v>As a developer, I want the Air Currents in the game that push the player around</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="70"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="70"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="70"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="69"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="69"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="70"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A72" s="20" t="str">
+        <f>A10</f>
+        <v>As a developer, I want the enemy spawner to respawn enemies</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="72"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="70"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="69"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="73"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="69"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" thickBot="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="70"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="70"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="70"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="69"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="20" t="str">
+        <f>A11</f>
+        <v>As a developer, I want the game to be arcade machine compliant</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="72"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="20"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="73"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="69"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="70"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="69"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="70"/>
-    </row>
-    <row r="81" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A80" s="20" t="str">
+        <f>A12</f>
+        <v>As a developer, I want the particle engine to be complete</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="72"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="70"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="69"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="73"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="70"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="69"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="69"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="70"/>
-    </row>
-    <row r="85" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="70"/>
+      <c r="A84" s="20" t="str">
+        <f xml:space="preserve"> A13</f>
+        <v>As a developer, I want the tier 1 fire spells done</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="69"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="73"/>
-    </row>
-    <row r="87" spans="1:8" ht="15">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-    </row>
-    <row r="88" spans="1:8" ht="15">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-    </row>
-    <row r="89" spans="1:8" ht="15">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="69"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="69"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="20" t="str">
+        <f xml:space="preserve"> A14</f>
+        <v>As a developer, I want the tier 1 ice spells done</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="72"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="69"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-    </row>
-    <row r="91" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A91" s="20"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="69"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="20" t="str">
+        <f xml:space="preserve"> A15</f>
+        <v>As a developer, I want the tier 1 wind spells done</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="73"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="70"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="66"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="70"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="66"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="70"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="20"/>
+      <c r="A95" s="20" t="str">
+        <f>A16</f>
+        <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="73"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="81"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="70"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="75"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="70"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="84"/>
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="70"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="78"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="20"/>
+      <c r="A99" s="20" t="str">
+        <f>A17</f>
+        <v>As a developer, I want to implement a win/lose condition</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="73"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="81"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="70"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="75"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="70"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="75"/>
     </row>
     <row r="102" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="70"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="78"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="20"/>
+      <c r="A103" s="20" t="str">
+        <f>A18</f>
+        <v>As a developer, I want water terrain to hurt the player and flood the level</v>
+      </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="73"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="81"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="70"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="70"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="73"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="75"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="56"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="75"/>
+    </row>
+    <row r="106" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="78"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
+      <c r="A107" s="20" t="str">
+        <f>A19</f>
+        <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="81"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="64"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="75"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="60"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="63"/>
-      <c r="H110" s="64"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="75"/>
+    </row>
+    <row r="110" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="78"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-    </row>
-    <row r="112" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="67"/>
+      <c r="A111" s="20" t="str">
+        <f>A20</f>
+        <v>As a user, I want a free-fire mode while using the game pad</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="81"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="75"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="86"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="A113" s="56"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="75"/>
+    </row>
+    <row r="114" spans="1:8" ht="13.5" thickBot="1">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="80"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="78"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="60"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="87"/>
-      <c r="D115" s="88"/>
-      <c r="E115" s="88"/>
-      <c r="F115" s="88"/>
-      <c r="G115" s="88"/>
-      <c r="H115" s="89"/>
+      <c r="A115" s="20" t="str">
+        <f>A21</f>
+        <v>As a user, I want a mini-map to help me get around the level</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="81"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="60"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="87"/>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="88"/>
-      <c r="G116" s="88"/>
-      <c r="H116" s="89"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="75"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="60"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="87"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="89"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="60"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="88"/>
-      <c r="E118" s="88"/>
-      <c r="F118" s="88"/>
-      <c r="G118" s="88"/>
-      <c r="H118" s="89"/>
-    </row>
-    <row r="119" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A119" s="58"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="81"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="83"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="75"/>
+    </row>
+    <row r="118" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="78"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="20" t="str">
+        <f>A22</f>
+        <v>As a user, I want multiple earth spells</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="81"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="84"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="86"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="75"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="80"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="A121" s="56"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="75"/>
+    </row>
+    <row r="122" spans="1:8" ht="13.5" thickBot="1">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="80"/>
-    </row>
-    <row r="123" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="83"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="78"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="20" t="str">
+        <f>A23</f>
+        <v>As a user, I want multiple fire spells</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="81"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
-      <c r="G124" s="85"/>
-      <c r="H124" s="86"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="75"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="80"/>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="A125" s="56"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="75"/>
+    </row>
+    <row r="126" spans="1:8" ht="13.5" thickBot="1">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
-      <c r="C126" s="78"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="80"/>
-    </row>
-    <row r="127" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A127" s="58"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="81"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="83"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="78"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="20" t="str">
+        <f>A24</f>
+        <v>As a user, I want multiple ice spells</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="81"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="84"/>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
-      <c r="G128" s="85"/>
-      <c r="H128" s="86"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="74"/>
+      <c r="H128" s="75"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="80"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="80"/>
-    </row>
-    <row r="131" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A131" s="58"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="83"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="75"/>
+    </row>
+    <row r="130" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="78"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="20" t="str">
+        <f>A25</f>
+        <v>As a user, I want multiple wind spells</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="80"/>
+      <c r="H131" s="81"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="84"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="86"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="75"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="78"/>
-      <c r="D133" s="79"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="79"/>
-      <c r="H133" s="80"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="78"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="80"/>
-    </row>
-    <row r="135" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="82"/>
-      <c r="F135" s="82"/>
-      <c r="G135" s="82"/>
-      <c r="H135" s="83"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="75"/>
+    </row>
+    <row r="134" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="78"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="20" t="str">
+        <f>A26</f>
+        <v>As a user, I want my option configurations saved auto-magically</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="81"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="84"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="86"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="75"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="57"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="78"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="80"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="78"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="80"/>
-    </row>
-    <row r="139" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A139" s="58"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="83"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="75"/>
+    </row>
+    <row r="138" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="78"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="20" t="str">
+        <f>A27</f>
+        <v>As a user, I want my spells to cancel out hostile spells</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="81"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="86"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="75"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="57"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="79"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="79"/>
-      <c r="H141" s="80"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="57"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="79"/>
-      <c r="H142" s="80"/>
-    </row>
-    <row r="143" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A143" s="58"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="82"/>
-      <c r="H143" s="83"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="74"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="75"/>
+    </row>
+    <row r="142" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="78"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="20" t="str">
+        <f>A28</f>
+        <v>As a user, I want the camera to function properly when playing with two players.</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="81"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="84"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="86"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="75"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="57"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="80"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="57"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="80"/>
-    </row>
-    <row r="147" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A147" s="58"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="81"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="83"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="74"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="75"/>
+    </row>
+    <row r="146" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="78"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="20" t="str">
+        <f>A29</f>
+        <v>As a user, I want the earth enemies to decide which player to attack when playing with two players.</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="79"/>
+      <c r="D147" s="80"/>
+      <c r="E147" s="80"/>
+      <c r="F147" s="80"/>
+      <c r="G147" s="80"/>
+      <c r="H147" s="81"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="60"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="74"/>
+      <c r="H148" s="75"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="60"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="75"/>
+    </row>
+    <row r="150" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A150" s="61"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="78"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="20" t="str">
+        <f>A30</f>
+        <v>As a user, I want the spells of different elements to interact with each other</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="80"/>
+      <c r="G151" s="80"/>
+      <c r="H151" s="81"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="60"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="75"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="60"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="74"/>
+      <c r="G153" s="74"/>
+      <c r="H153" s="75"/>
+    </row>
+    <row r="154" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="78"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="20" t="str">
+        <f>A31</f>
+        <v>As a user, I want the spells to have effects on the alternate terrain</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="80"/>
+      <c r="E155" s="80"/>
+      <c r="F155" s="80"/>
+      <c r="G155" s="80"/>
+      <c r="H155" s="81"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="75"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="75"/>
+    </row>
+    <row r="158" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A158" s="61"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="78"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="20" t="str">
+        <f>A32</f>
+        <v>As a user, I want the state of the terrain to be saved</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="80"/>
+      <c r="G159" s="80"/>
+      <c r="H159" s="81"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="75"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="75"/>
+    </row>
+    <row r="162" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="77"/>
+      <c r="H162" s="78"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="20" t="str">
+        <f>A33</f>
+        <v>As a user, I want to play different multiplayer game modes such as co-op and death-match</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="80"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="80"/>
+      <c r="H163" s="81"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="73"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="75"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="75"/>
+    </row>
+    <row r="166" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="77"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="78"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="20" t="str">
+        <f>A34</f>
+        <v>As a user, I want to transition between levels</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="80"/>
+      <c r="E167" s="80"/>
+      <c r="F167" s="80"/>
+      <c r="G167" s="80"/>
+      <c r="H167" s="81"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="75"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="73"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="75"/>
+    </row>
+    <row r="170" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A170" s="61"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="77"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="77"/>
+      <c r="H170" s="78"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="20" t="str">
+        <f>A35</f>
+        <v>As a user, I would like to have a HUD.</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="79"/>
+      <c r="D171" s="80"/>
+      <c r="E171" s="80"/>
+      <c r="F171" s="80"/>
+      <c r="G171" s="80"/>
+      <c r="H171" s="81"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="75"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="73"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="75"/>
+    </row>
+    <row r="174" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A174" s="61"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="77"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="77"/>
+      <c r="G174" s="77"/>
+      <c r="H174" s="78"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="20" t="str">
+        <f>A36</f>
+        <v>As an Everyman, I want the enemies to behave differently</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="79"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
+      <c r="G175" s="80"/>
+      <c r="H175" s="81"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="62"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="73"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="74"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="75"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="62"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="73"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="74"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="75"/>
+    </row>
+    <row r="178" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A178" s="63"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="77"/>
+      <c r="E178" s="77"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="77"/>
+      <c r="H178" s="78"/>
     </row>
   </sheetData>
-  <sortState ref="A19:A34">
-    <sortCondition ref="A19"/>
+  <sortState ref="A4:A36">
+    <sortCondition ref="A36"/>
   </sortState>
-  <mergeCells count="106">
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C146:H146"/>
-    <mergeCell ref="C147:H147"/>
+  <mergeCells count="137">
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C154:H154"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C141:H141"/>
     <mergeCell ref="C142:H142"/>
     <mergeCell ref="C143:H143"/>
     <mergeCell ref="C144:H144"/>
     <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C153:H153"/>
     <mergeCell ref="C136:H136"/>
     <mergeCell ref="C137:H137"/>
     <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
     <mergeCell ref="C131:H131"/>
     <mergeCell ref="C132:H132"/>
     <mergeCell ref="C133:H133"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C42:H42"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C58:H58"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="C49:H49"/>
@@ -3361,36 +3732,65 @@
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C55:H55"/>
     <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
     <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>User Stories</t>
   </si>
@@ -315,6 +315,225 @@
   </si>
   <si>
     <t>As a user, I want a mini-map to help me get around the level</t>
+  </si>
+  <si>
+    <t>Dr. Kage Vikarof renders and is able to be killed and damage player.</t>
+  </si>
+  <si>
+    <t>Jennifer renders and is able to be killed and damage player.</t>
+  </si>
+  <si>
+    <t>Either Dr. Kage Vikarof or Jennifer appears as final boss based off time.</t>
+  </si>
+  <si>
+    <t>If no input from the player while at the menu, a separate attract mode becomes active</t>
+  </si>
+  <si>
+    <t>Once there is input, attract mode ends.</t>
+  </si>
+  <si>
+    <t>Spell experience is gained on collision with enemy and terrain</t>
+  </si>
+  <si>
+    <t>Spell types level up based on experience.</t>
+  </si>
+  <si>
+    <t>Power of the spells increases as level increases</t>
+  </si>
+  <si>
+    <t>Damage is dealt based on elemental affinities.</t>
+  </si>
+  <si>
+    <t>Switches placed through the level.</t>
+  </si>
+  <si>
+    <t>Switches activated when collide with player.</t>
+  </si>
+  <si>
+    <t>Switches allow for progression in the level</t>
+  </si>
+  <si>
+    <t>Lava deals damage to the player when the player is immersed</t>
+  </si>
+  <si>
+    <t>Air currents propel the player in the direction of the air flow</t>
+  </si>
+  <si>
+    <t>When an enemy dies, they are respawned when the spawner becomes off screen</t>
+  </si>
+  <si>
+    <t>Particles will be rendered correctly</t>
+  </si>
+  <si>
+    <t>Particles dissapear when spells are destroyed</t>
+  </si>
+  <si>
+    <t>Damage over time is applied to enemies upon contact with a fire spell</t>
+  </si>
+  <si>
+    <t>Enemies are slowed when hit by ice spells</t>
+  </si>
+  <si>
+    <t>Enemies are pushed back in the direction they are hit when hit by wind spells.</t>
+  </si>
+  <si>
+    <t>Energy is dropped when enemies are killed</t>
+  </si>
+  <si>
+    <t>Energy can be picked up and stored by the players</t>
+  </si>
+  <si>
+    <t>Energy is required and deducted when using tier 2 spells.</t>
+  </si>
+  <si>
+    <t>The player loses when they run out of health and lives</t>
+  </si>
+  <si>
+    <t>Player achieves victory when they defeat the final boss</t>
+  </si>
+  <si>
+    <t>Water damages the player when they are submerged.</t>
+  </si>
+  <si>
+    <t>When water will flood the level to a predefined flood height</t>
+  </si>
+  <si>
+    <t>Player earns score for destroying terrain</t>
+  </si>
+  <si>
+    <t>Player earns score for destroying enemies</t>
+  </si>
+  <si>
+    <t>Player earns score based of time when they defeat the final boss</t>
+  </si>
+  <si>
+    <t>Player can activate/deactivate free-fire mode using the gamepad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player can aim spells using the right thumbstick </t>
+  </si>
+  <si>
+    <t>HUD displays a mini-map to display nearby areas.</t>
+  </si>
+  <si>
+    <t>Game works with Arcade machine controls</t>
+  </si>
+  <si>
+    <t>No memory leaks or warning.</t>
+  </si>
+  <si>
+    <t>Game does not crash.</t>
+  </si>
+  <si>
+    <t>HUD updates when tiles are destroyed to display current terrain.</t>
+  </si>
+  <si>
+    <t>Tier 2 spell takes earth energy to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 2 earth spell creates earth pillar that can be jumped on. </t>
+  </si>
+  <si>
+    <t>Tier 3 earth spell creates giant hand that rises and grabs enemies, killing them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 3 fire spell clears screen and displays particles </t>
+  </si>
+  <si>
+    <t>Tier 2 spell takes fire energy to use.</t>
+  </si>
+  <si>
+    <t>Tier 2 ice spell creates giant ice shard that can be jumped on and damage enemies.</t>
+  </si>
+  <si>
+    <t>Tier 2 fire spell creates a lava flow that damages terrain and enemies. goes away after a fixed time.</t>
+  </si>
+  <si>
+    <t>Tier 3 ice spell "freezes" all enemies on screen, as well as lava terrain and water terrain.</t>
+  </si>
+  <si>
+    <t>Tier 2 spell takes ice energy to use.</t>
+  </si>
+  <si>
+    <t>Tier 2 wind spell creates a tornado that can propel the player upward as well as damage the enemy and terrain</t>
+  </si>
+  <si>
+    <t>Tier 3 wind spell creates an "aura" around the player that protects him from damage for a fixed time and pushes back enemies.</t>
+  </si>
+  <si>
+    <t>Menu options, including sound volumes, saved after game is exited.</t>
+  </si>
+  <si>
+    <t>Configurations are loaded when the game loads.</t>
+  </si>
+  <si>
+    <t>Spells can negate enemy spells</t>
+  </si>
+  <si>
+    <t>Particle effect created when spell is negate/destroyed</t>
+  </si>
+  <si>
+    <t>Players don’t fall of the screen</t>
+  </si>
+  <si>
+    <t>If Players fall of screen, they are brought back on screen</t>
+  </si>
+  <si>
+    <t>Earth enemies will attack nearest player</t>
+  </si>
+  <si>
+    <t>Original spells are destroyed.</t>
+  </si>
+  <si>
+    <t>Player 1's spells collide with Player 2's spells</t>
+  </si>
+  <si>
+    <t>New spell created in place of the destroyed spells</t>
+  </si>
+  <si>
+    <t>Boulders stop air currents for a fixed time when they collide</t>
+  </si>
+  <si>
+    <t>Ice freezes water and lava for a fixed time when they collide.</t>
+  </si>
+  <si>
+    <t>When the game is saved, the terrain is saved along with the player information</t>
+  </si>
+  <si>
+    <t>Destroyed tiles are not loaded with the level.</t>
+  </si>
+  <si>
+    <t>Player can select Co-op, and deathmatch multiplayer modes</t>
+  </si>
+  <si>
+    <t>Deathmatch functions properly, and players can win/lose</t>
+  </si>
+  <si>
+    <t>Co-op mode functions properly with both players able to control their respective characters</t>
+  </si>
+  <si>
+    <t>Player can reach end of level and next level will be loaded</t>
+  </si>
+  <si>
+    <t>Player will be able to function within additional levels</t>
+  </si>
+  <si>
+    <t>HUD is visible on the screen</t>
+  </si>
+  <si>
+    <t>HUD provides vital game information to the player</t>
+  </si>
+  <si>
+    <t>HUD updates as game information changes</t>
+  </si>
+  <si>
+    <t>Enemy types attack the players differently</t>
+  </si>
+  <si>
+    <t>Enemy types have different priorities.</t>
+  </si>
+  <si>
+    <t>Enemy types have different states/"behaviors"</t>
   </si>
 </sst>
 </file>
@@ -788,6 +1007,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -797,77 +1079,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1529,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176:H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2178,14 +2397,14 @@
       <c r="B42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="87"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="81"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="20" t="str">
@@ -2193,42 +2412,48 @@
         <v>As a designer, I want a final boss, decided by how quickly the player gets to the end.</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="78"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
+      <c r="C44" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="69"/>
+      <c r="C45" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
+      <c r="C46" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="20" t="str">
@@ -2236,42 +2461,46 @@
         <v>As a designer, I want an attract mode that attracts people.</v>
       </c>
       <c r="B47" s="23"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
+      <c r="C48" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
+      <c r="C49" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="90"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="84"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="20" t="str">
@@ -2279,52 +2508,58 @@
         <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
       </c>
       <c r="B51" s="23"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="72"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="78"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
+      <c r="C52" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="75"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
+      <c r="C53" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
+      <c r="C54" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="75"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" thickBot="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="75"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="20" t="str">
@@ -2332,42 +2567,44 @@
         <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
       </c>
       <c r="B56" s="23"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="78"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="69"/>
+      <c r="C57" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="75"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="69"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="75"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" thickBot="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="69"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="75"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="20" t="str">
@@ -2375,42 +2612,48 @@
         <v>As a designer, I want the player to hit switches to progress through the level</v>
       </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="72"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="78"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="69"/>
+      <c r="C61" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="75"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="69"/>
+      <c r="C62" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="75"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" thickBot="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="69"/>
+      <c r="C63" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="20" t="str">
@@ -2418,42 +2661,44 @@
         <v>As a developer, I want Lava terrain to hurt the player</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="72"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="78"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
+      <c r="C65" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="69"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="75"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="69"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="20" t="str">
@@ -2461,42 +2706,44 @@
         <v>As a developer, I want the Air Currents in the game that push the player around</v>
       </c>
       <c r="B68" s="23"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="78"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="69"/>
+      <c r="C69" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="75"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="69"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="75"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" thickBot="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="69"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="75"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="20" t="str">
@@ -2504,42 +2751,44 @@
         <v>As a developer, I want the enemy spawner to respawn enemies</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="78"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="69"/>
+      <c r="C73" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="75"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="69"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="75"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" thickBot="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="69"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="75"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="20" t="str">
@@ -2547,42 +2796,48 @@
         <v>As a developer, I want the game to be arcade machine compliant</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="78"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69"/>
+      <c r="C77" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="75"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="69"/>
+      <c r="C78" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="75"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="69"/>
+      <c r="C79" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="75"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="20" t="str">
@@ -2590,42 +2845,46 @@
         <v>As a developer, I want the particle engine to be complete</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="72"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="78"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="69"/>
+      <c r="C81" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="75"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="69"/>
+      <c r="C82" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="75"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="69"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="75"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="20" t="str">
@@ -2633,42 +2892,44 @@
         <v>As a developer, I want the tier 1 fire spells done</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="72"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="78"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="69"/>
+      <c r="C85" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="75"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="69"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="75"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="69"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="75"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="20" t="str">
@@ -2676,32 +2937,34 @@
         <v>As a developer, I want the tier 1 ice spells done</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="72"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="78"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="69"/>
+      <c r="C89" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="75"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="69"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="75"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="20" t="str">
@@ -2709,42 +2972,44 @@
         <v>As a developer, I want the tier 1 wind spells done</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="78"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="66"/>
+      <c r="C92" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="87"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="66"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="87"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="66"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="87"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="20" t="str">
@@ -2752,42 +3017,48 @@
         <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
-      <c r="H95" s="81"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="66"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="75"/>
+      <c r="C96" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="69"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="84"/>
+      <c r="C97" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="90"/>
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="78"/>
+      <c r="C98" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="72"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="20" t="str">
@@ -2795,42 +3066,46 @@
         <v>As a developer, I want to implement a win/lose condition</v>
       </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="81"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="75"/>
+      <c r="C100" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="69"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="75"/>
+      <c r="C101" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="69"/>
     </row>
     <row r="102" spans="1:8" ht="13.5" thickBot="1">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="78"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="72"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="20" t="str">
@@ -2838,42 +3113,46 @@
         <v>As a developer, I want water terrain to hurt the player and flood the level</v>
       </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-      <c r="H103" s="81"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="75"/>
+      <c r="C104" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="68"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="69"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="75"/>
+      <c r="C105" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="69"/>
     </row>
     <row r="106" spans="1:8" ht="13.5" thickBot="1">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="78"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="72"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="20" t="str">
@@ -2881,42 +3160,48 @@
         <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="81"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="66"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="75"/>
+      <c r="C108" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="69"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="75"/>
+      <c r="C109" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="69"/>
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="78"/>
+      <c r="C110" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="72"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="20" t="str">
@@ -2924,42 +3209,46 @@
         <v>As a user, I want a free-fire mode while using the game pad</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="81"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="66"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="75"/>
+      <c r="C112" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="69"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="75"/>
+      <c r="C113" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="69"/>
     </row>
     <row r="114" spans="1:8" ht="13.5" thickBot="1">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="78"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="72"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="20" t="str">
@@ -2967,42 +3256,46 @@
         <v>As a user, I want a mini-map to help me get around the level</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="81"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="66"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="75"/>
+      <c r="C116" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="69"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="75"/>
+      <c r="C117" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="69"/>
     </row>
     <row r="118" spans="1:8" ht="13.5" thickBot="1">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="78"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="72"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="20" t="str">
@@ -3010,42 +3303,48 @@
         <v>As a user, I want multiple earth spells</v>
       </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="80"/>
-      <c r="E119" s="80"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="81"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="66"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="75"/>
+      <c r="C120" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="69"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="74"/>
-      <c r="H121" s="75"/>
+      <c r="C121" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="69"/>
     </row>
     <row r="122" spans="1:8" ht="13.5" thickBot="1">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="77"/>
-      <c r="H122" s="78"/>
+      <c r="C122" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="72"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="20" t="str">
@@ -3053,42 +3352,48 @@
         <v>As a user, I want multiple fire spells</v>
       </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="81"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="66"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="75"/>
+      <c r="C124" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="69"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="75"/>
+      <c r="C125" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="69"/>
     </row>
     <row r="126" spans="1:8" ht="13.5" thickBot="1">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
-      <c r="C126" s="76"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="78"/>
+      <c r="C126" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="72"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="20" t="str">
@@ -3096,42 +3401,48 @@
         <v>As a user, I want multiple ice spells</v>
       </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="80"/>
-      <c r="E127" s="80"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="81"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="66"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="60"/>
       <c r="B128" s="60"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="74"/>
-      <c r="H128" s="75"/>
+      <c r="C128" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="69"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="60"/>
       <c r="B129" s="60"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="75"/>
+      <c r="C129" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="69"/>
     </row>
     <row r="130" spans="1:8" ht="13.5" thickBot="1">
       <c r="A130" s="61"/>
       <c r="B130" s="61"/>
-      <c r="C130" s="76"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="78"/>
+      <c r="C130" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="72"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="20" t="str">
@@ -3139,42 +3450,48 @@
         <v>As a user, I want multiple wind spells</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="79"/>
-      <c r="D131" s="80"/>
-      <c r="E131" s="80"/>
-      <c r="F131" s="80"/>
-      <c r="G131" s="80"/>
-      <c r="H131" s="81"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="66"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="60"/>
       <c r="B132" s="60"/>
-      <c r="C132" s="73"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="75"/>
+      <c r="C132" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="69"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="60"/>
       <c r="B133" s="60"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="75"/>
+      <c r="C133" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="69"/>
     </row>
     <row r="134" spans="1:8" ht="13.5" thickBot="1">
       <c r="A134" s="61"/>
       <c r="B134" s="61"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="78"/>
+      <c r="C134" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="72"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="20" t="str">
@@ -3182,42 +3499,46 @@
         <v>As a user, I want my option configurations saved auto-magically</v>
       </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="80"/>
-      <c r="E135" s="80"/>
-      <c r="F135" s="80"/>
-      <c r="G135" s="80"/>
-      <c r="H135" s="81"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="66"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="60"/>
       <c r="B136" s="60"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="75"/>
+      <c r="C136" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="69"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="60"/>
       <c r="B137" s="60"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="75"/>
+      <c r="C137" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="69"/>
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1">
       <c r="A138" s="61"/>
       <c r="B138" s="61"/>
-      <c r="C138" s="76"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="78"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="72"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="20" t="str">
@@ -3225,42 +3546,46 @@
         <v>As a user, I want my spells to cancel out hostile spells</v>
       </c>
       <c r="B139" s="20"/>
-      <c r="C139" s="79"/>
-      <c r="D139" s="80"/>
-      <c r="E139" s="80"/>
-      <c r="F139" s="80"/>
-      <c r="G139" s="80"/>
-      <c r="H139" s="81"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="66"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="60"/>
       <c r="B140" s="60"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="75"/>
+      <c r="C140" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="69"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="60"/>
       <c r="B141" s="60"/>
-      <c r="C141" s="73"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="75"/>
+      <c r="C141" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="69"/>
     </row>
     <row r="142" spans="1:8" ht="13.5" thickBot="1">
       <c r="A142" s="61"/>
       <c r="B142" s="61"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="78"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="72"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="20" t="str">
@@ -3268,42 +3593,46 @@
         <v>As a user, I want the camera to function properly when playing with two players.</v>
       </c>
       <c r="B143" s="20"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="80"/>
-      <c r="E143" s="80"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="80"/>
-      <c r="H143" s="81"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="66"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="60"/>
       <c r="B144" s="60"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="75"/>
+      <c r="C144" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="69"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="60"/>
       <c r="B145" s="60"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="75"/>
+      <c r="C145" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="69"/>
     </row>
     <row r="146" spans="1:8" ht="13.5" thickBot="1">
       <c r="A146" s="61"/>
       <c r="B146" s="61"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="78"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="72"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="20" t="str">
@@ -3311,42 +3640,44 @@
         <v>As a user, I want the earth enemies to decide which player to attack when playing with two players.</v>
       </c>
       <c r="B147" s="20"/>
-      <c r="C147" s="79"/>
-      <c r="D147" s="80"/>
-      <c r="E147" s="80"/>
-      <c r="F147" s="80"/>
-      <c r="G147" s="80"/>
-      <c r="H147" s="81"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="66"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="60"/>
       <c r="B148" s="60"/>
-      <c r="C148" s="73"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="74"/>
-      <c r="H148" s="75"/>
+      <c r="C148" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="68"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="69"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="60"/>
       <c r="B149" s="60"/>
-      <c r="C149" s="73"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="75"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="69"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" thickBot="1">
       <c r="A150" s="61"/>
       <c r="B150" s="61"/>
-      <c r="C150" s="76"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="78"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="72"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="20" t="str">
@@ -3354,42 +3685,48 @@
         <v>As a user, I want the spells of different elements to interact with each other</v>
       </c>
       <c r="B151" s="20"/>
-      <c r="C151" s="79"/>
-      <c r="D151" s="80"/>
-      <c r="E151" s="80"/>
-      <c r="F151" s="80"/>
-      <c r="G151" s="80"/>
-      <c r="H151" s="81"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="66"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
-      <c r="C152" s="73"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="75"/>
+      <c r="C152" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="68"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="69"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="60"/>
       <c r="B153" s="60"/>
-      <c r="C153" s="73"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="74"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="74"/>
-      <c r="H153" s="75"/>
+      <c r="C153" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="69"/>
     </row>
     <row r="154" spans="1:8" ht="13.5" thickBot="1">
       <c r="A154" s="61"/>
       <c r="B154" s="61"/>
-      <c r="C154" s="76"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="77"/>
-      <c r="H154" s="78"/>
+      <c r="C154" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="71"/>
+      <c r="H154" s="72"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="20" t="str">
@@ -3397,42 +3734,46 @@
         <v>As a user, I want the spells to have effects on the alternate terrain</v>
       </c>
       <c r="B155" s="20"/>
-      <c r="C155" s="79"/>
-      <c r="D155" s="80"/>
-      <c r="E155" s="80"/>
-      <c r="F155" s="80"/>
-      <c r="G155" s="80"/>
-      <c r="H155" s="81"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="60"/>
       <c r="B156" s="60"/>
-      <c r="C156" s="73"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="74"/>
-      <c r="H156" s="75"/>
+      <c r="C156" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="69"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="60"/>
       <c r="B157" s="60"/>
-      <c r="C157" s="73"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="75"/>
+      <c r="C157" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="69"/>
     </row>
     <row r="158" spans="1:8" ht="13.5" thickBot="1">
       <c r="A158" s="61"/>
       <c r="B158" s="61"/>
-      <c r="C158" s="76"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="78"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="71"/>
+      <c r="H158" s="72"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="20" t="str">
@@ -3440,42 +3781,46 @@
         <v>As a user, I want the state of the terrain to be saved</v>
       </c>
       <c r="B159" s="20"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="80"/>
-      <c r="E159" s="80"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="80"/>
-      <c r="H159" s="81"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="60"/>
       <c r="B160" s="60"/>
-      <c r="C160" s="73"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="75"/>
+      <c r="C160" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="69"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="60"/>
       <c r="B161" s="60"/>
-      <c r="C161" s="73"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="75"/>
+      <c r="C161" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="69"/>
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1">
       <c r="A162" s="61"/>
       <c r="B162" s="61"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="77"/>
-      <c r="E162" s="77"/>
-      <c r="F162" s="77"/>
-      <c r="G162" s="77"/>
-      <c r="H162" s="78"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="71"/>
+      <c r="G162" s="71"/>
+      <c r="H162" s="72"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="20" t="str">
@@ -3483,42 +3828,48 @@
         <v>As a user, I want to play different multiplayer game modes such as co-op and death-match</v>
       </c>
       <c r="B163" s="20"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="80"/>
-      <c r="H163" s="81"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="60"/>
       <c r="B164" s="60"/>
-      <c r="C164" s="73"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="74"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="75"/>
+      <c r="C164" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="69"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="60"/>
       <c r="B165" s="60"/>
-      <c r="C165" s="73"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="75"/>
+      <c r="C165" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="69"/>
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1">
       <c r="A166" s="61"/>
       <c r="B166" s="61"/>
-      <c r="C166" s="76"/>
-      <c r="D166" s="77"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="78"/>
+      <c r="C166" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="71"/>
+      <c r="G166" s="71"/>
+      <c r="H166" s="72"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="20" t="str">
@@ -3526,42 +3877,46 @@
         <v>As a user, I want to transition between levels</v>
       </c>
       <c r="B167" s="20"/>
-      <c r="C167" s="79"/>
-      <c r="D167" s="80"/>
-      <c r="E167" s="80"/>
-      <c r="F167" s="80"/>
-      <c r="G167" s="80"/>
-      <c r="H167" s="81"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+      <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="60"/>
       <c r="B168" s="60"/>
-      <c r="C168" s="73"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="75"/>
+      <c r="C168" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D168" s="68"/>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="69"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="60"/>
       <c r="B169" s="60"/>
-      <c r="C169" s="73"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="75"/>
+      <c r="C169" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="69"/>
     </row>
     <row r="170" spans="1:8" ht="13.5" thickBot="1">
       <c r="A170" s="61"/>
       <c r="B170" s="61"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="78"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="72"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="20" t="str">
@@ -3569,42 +3924,48 @@
         <v>As a user, I would like to have a HUD.</v>
       </c>
       <c r="B171" s="20"/>
-      <c r="C171" s="79"/>
-      <c r="D171" s="80"/>
-      <c r="E171" s="80"/>
-      <c r="F171" s="80"/>
-      <c r="G171" s="80"/>
-      <c r="H171" s="81"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="60"/>
       <c r="B172" s="60"/>
-      <c r="C172" s="73"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="75"/>
+      <c r="C172" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="69"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="60"/>
       <c r="B173" s="60"/>
-      <c r="C173" s="73"/>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="74"/>
-      <c r="H173" s="75"/>
+      <c r="C173" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="69"/>
     </row>
     <row r="174" spans="1:8" ht="13.5" thickBot="1">
       <c r="A174" s="61"/>
       <c r="B174" s="61"/>
-      <c r="C174" s="76"/>
-      <c r="D174" s="77"/>
-      <c r="E174" s="77"/>
-      <c r="F174" s="77"/>
-      <c r="G174" s="77"/>
-      <c r="H174" s="78"/>
+      <c r="C174" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" s="71"/>
+      <c r="E174" s="71"/>
+      <c r="F174" s="71"/>
+      <c r="G174" s="71"/>
+      <c r="H174" s="72"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="20" t="str">
@@ -3612,161 +3973,54 @@
         <v>As an Everyman, I want the enemies to behave differently</v>
       </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="79"/>
-      <c r="D175" s="80"/>
-      <c r="E175" s="80"/>
-      <c r="F175" s="80"/>
-      <c r="G175" s="80"/>
-      <c r="H175" s="81"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="62"/>
       <c r="B176" s="62"/>
-      <c r="C176" s="73"/>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="74"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="75"/>
+      <c r="C176" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="69"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="62"/>
       <c r="B177" s="62"/>
-      <c r="C177" s="73"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="74"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="75"/>
+      <c r="C177" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="69"/>
     </row>
     <row r="178" spans="1:8" ht="13.5" thickBot="1">
       <c r="A178" s="63"/>
       <c r="B178" s="63"/>
-      <c r="C178" s="76"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="77"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="77"/>
-      <c r="H178" s="78"/>
+      <c r="C178" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D178" s="71"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="71"/>
+      <c r="G178" s="71"/>
+      <c r="H178" s="72"/>
     </row>
   </sheetData>
   <sortState ref="A4:A36">
     <sortCondition ref="A36"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="C175:H175"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C177:H177"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="C172:H172"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="C159:H159"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C154:H154"/>
-    <mergeCell ref="C155:H155"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C158:H158"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C146:H146"/>
-    <mergeCell ref="C147:H147"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
     <mergeCell ref="C94:H94"/>
     <mergeCell ref="C93:H93"/>
     <mergeCell ref="C59:H59"/>
@@ -3791,6 +4045,119 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C154:H154"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="C174:H174"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="173">
   <si>
     <t>User Stories</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Corona</t>
   </si>
   <si>
-    <t>Jonathon Caro</t>
-  </si>
-  <si>
     <t>Mike Hatter</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>As a user, I want the camera to function properly when playing with two players.</t>
   </si>
   <si>
-    <t>As a user, I want the earth enemies to decide which player to attack when playing with two players.</t>
-  </si>
-  <si>
     <t>As a designer, I want an attract mode that attracts people.</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>As a user, I want multiple fire spells</t>
   </si>
   <si>
-    <t>As a user, I want multiple earth spells</t>
-  </si>
-  <si>
     <t>As a user, I want the spells of different elements to interact with each other</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>As a user, I want the spells to have effects on the alternate terrain</t>
   </si>
   <si>
-    <t>As an Everyman, I want the enemies to behave differently</t>
-  </si>
-  <si>
     <t>As a designer, I want a final boss, decided by how quickly the player gets to the end.</t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t>If Players fall of screen, they are brought back on screen</t>
   </si>
   <si>
-    <t>Earth enemies will attack nearest player</t>
-  </si>
-  <si>
     <t>Original spells are destroyed.</t>
   </si>
   <si>
@@ -534,6 +519,30 @@
   </si>
   <si>
     <t>Enemy types have different states/"behaviors"</t>
+  </si>
+  <si>
+    <t>Jonathan Caro</t>
+  </si>
+  <si>
+    <t>Xiaodong Weng</t>
+  </si>
+  <si>
+    <t>347.759.9505</t>
+  </si>
+  <si>
+    <t>As a Designer, I want the Fire Enemy to be different from the other enemies</t>
+  </si>
+  <si>
+    <t>As a Designer, I want the Ice Enemy to be different from the other enemies</t>
+  </si>
+  <si>
+    <t>As a Designer, I want the Wind Enemy to be different from the other enemies</t>
+  </si>
+  <si>
+    <t>As a Designer, I want the Earth Enemy to be different from the other enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want multiple earth spells </t>
   </si>
 </sst>
 </file>
@@ -1007,6 +1016,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1017,40 +1071,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1069,24 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1622,7 +1631,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1657,47 +1666,51 @@
     </row>
     <row r="5" spans="1:3" ht="13.5" thickTop="1">
       <c r="A5" s="40" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>167</v>
+      </c>
       <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1">
@@ -1746,10 +1759,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176:H176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1764,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="A1" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>1</v>
@@ -1780,7 +1793,7 @@
       <c r="B2" s="7"/>
       <c r="C2" s="14" t="str">
         <f>'Team info'!A5</f>
-        <v>Jonathon Caro</v>
+        <v>Jonathan Caro</v>
       </c>
       <c r="D2" s="14" t="str">
         <f>'Team info'!A6</f>
@@ -1794,9 +1807,9 @@
         <f>'Team info'!A8</f>
         <v>Sam Mathis</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="14" t="str">
         <f>'Team info'!A9</f>
-        <v>0</v>
+        <v>Xiaodong Weng</v>
       </c>
       <c r="H2" s="14">
         <f>'Team info'!A10</f>
@@ -1812,398 +1825,708 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="2">
+        <v>16</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="4">
+        <v>16</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="26"/>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="4">
+        <v>8</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="26"/>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="4">
+        <v>8</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="4">
+        <v>8</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="4">
+        <v>8</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>16</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="4">
+        <v>16</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="4">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4">
+        <v>40</v>
+      </c>
+      <c r="G22" s="4">
+        <v>40</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="4">
+        <v>40</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="4">
+        <v>8</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <v>12</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4">
+        <v>16</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="4">
+        <v>16</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="26"/>
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="26"/>
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2217,807 +2540,939 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4">
+        <v>16</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4">
+        <v>16</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="26"/>
+      <c r="J30" s="4">
+        <v>16</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="4">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>16</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4">
+        <v>12</v>
+      </c>
+      <c r="G31" s="4">
+        <v>16</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="26"/>
+      <c r="J31" s="4">
+        <v>12</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>12</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="4">
+        <v>8</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="26"/>
+      <c r="J32" s="4">
+        <v>12</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="4">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>16</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4">
+        <v>12</v>
+      </c>
+      <c r="G33" s="4">
+        <v>16</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="26"/>
+      <c r="J33" s="4">
+        <v>16</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="4">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4">
+        <v>12</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="26"/>
+      <c r="J34" s="4">
+        <v>12</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4">
+        <v>12</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="26"/>
+      <c r="J35" s="4">
+        <v>8</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4">
+        <v>16</v>
+      </c>
+      <c r="D36" s="4">
+        <v>12</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4">
+        <v>12</v>
+      </c>
+      <c r="G36" s="4">
+        <v>12</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="26"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A37" s="53" t="s">
+      <c r="J36" s="4">
+        <v>12</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="4">
+        <v>4</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4">
+        <v>16</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="4">
+        <v>16</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A40" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C38" s="52" t="s">
+    <row r="41" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C41" s="52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C39" s="14" t="str">
-        <f t="shared" ref="C39:H39" si="0">C2</f>
-        <v>Jonathon Caro</v>
-      </c>
-      <c r="D39" s="14" t="str">
+    <row r="42" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C42" s="14" t="str">
+        <f t="shared" ref="C42:H42" si="0">C2</f>
+        <v>Jonathan Caro</v>
+      </c>
+      <c r="D42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Mike Hatter</v>
       </c>
-      <c r="E39" s="14" t="str">
+      <c r="E42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Pablo Leon</v>
       </c>
-      <c r="F39" s="14" t="str">
+      <c r="F42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Sam Mathis</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G42" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Xiaodong Weng</v>
+      </c>
+      <c r="H42" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="14">
-        <f t="shared" si="0"/>
+      <c r="J42" s="52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" thickBot="1">
+      <c r="C43" s="8">
+        <f>SUMIF(K3:K39,C42,J3:J39)</f>
+        <v>82</v>
+      </c>
+      <c r="D43" s="8">
+        <f>SUMIF(K3:K39,D42,J3:J39)</f>
+        <v>82</v>
+      </c>
+      <c r="E43" s="8">
+        <f>SUMIF(K3:K39,E42,J3:J39)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.5" thickBot="1">
-      <c r="C40" s="8">
-        <f>SUMIF(K3:K36,C39,J3:J36)</f>
+      <c r="F43" s="8">
+        <f>SUMIF(K3:K39,F42,J3:J39)</f>
+        <v>90</v>
+      </c>
+      <c r="G43" s="8">
+        <f>SUMIF(K3:K39,G42,J3:J39)</f>
+        <v>74</v>
+      </c>
+      <c r="H43" s="1">
+        <f>SUMIF(K3:K39,H42,J3:J39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="8">
-        <f>SUMIF(K3:K36,D39,J3:J36)</f>
+      <c r="J43" s="1">
+        <f>SUM(J3:J39)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="45" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="8">
-        <f>SUMIF(K3:K36,E39,J3:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <f>SUMIF(K3:K36,F39,J3:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <f>SUMIF(K3:K36,G39,J3:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <f>SUMIF(K3:K36,H39,J3:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <f>SUM(J3:J36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="42" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A42" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="36" t="s">
+      <c r="B45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C45" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="20" t="str">
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="87"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="20" t="str">
         <f>A3</f>
         <v>As a designer, I want a final boss, decided by how quickly the player gets to the end.</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="78"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="20" t="str">
-        <f>A4</f>
-        <v>As a designer, I want an attract mode that attracts people.</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="78"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" thickBot="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
+      <c r="C49" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="20" t="str">
+        <f>A4</f>
+        <v>As a designer, I want an attract mode that attracts people.</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="20" t="str">
-        <f>A5</f>
-        <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="C52" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.5" thickBot="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="90"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="75"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A54" s="20" t="str">
+        <f>A5</f>
+        <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
+      <c r="C55" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="20" t="str">
-        <f>A6</f>
-        <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="78"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="75"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="75"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="75"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="69"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="20" t="str">
+        <f>A6</f>
+        <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="72"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="20" t="str">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="69"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="69"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="20" t="str">
         <f>A7</f>
         <v>As a designer, I want the player to hit switches to progress through the level</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="78"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="75"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="75"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="75"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="72"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="20" t="str">
-        <f>A8</f>
-        <v>As a developer, I want Lava terrain to hurt the player</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="78"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="69"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="75"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="C65" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="75"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="75"/>
+      <c r="C66" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="69"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="20" t="str">
+        <f>A8</f>
+        <v>As a developer, I want Lava terrain to hurt the player</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="72"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="20" t="str">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="69"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="69"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="69"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="20" t="str">
         <f>A9</f>
         <v>As a developer, I want the Air Currents in the game that push the player around</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="78"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="75"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="75"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="75"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="20" t="str">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="69"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="69"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="69"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="20" t="str">
         <f>A10</f>
         <v>As a developer, I want the enemy spawner to respawn enemies</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="78"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="75"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="75"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="75"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="20" t="str">
+      <c r="B75" s="20"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="72"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="69"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="69"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="20" t="str">
         <f>A11</f>
         <v>As a developer, I want the game to be arcade machine compliant</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="78"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="75"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="75"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="75"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="72"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="20" t="str">
-        <f>A12</f>
-        <v>As a developer, I want the particle engine to be complete</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="78"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="69"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="75"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="C81" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="69"/>
+    </row>
+    <row r="82" spans="1:8" ht="13.5" thickBot="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="75"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="75"/>
+      <c r="C82" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="69"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="20" t="str">
+        <f>A12</f>
+        <v>As a developer, I want the particle engine to be complete</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="72"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="20" t="str">
-        <f xml:space="preserve"> A13</f>
-        <v>As a developer, I want the tier 1 fire spells done</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="78"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="69"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="75"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="C85" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="69"/>
+    </row>
+    <row r="86" spans="1:8" ht="13.5" thickBot="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="75"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="75"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="69"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="20" t="str">
+        <f xml:space="preserve"> A13</f>
+        <v>As a developer, I want the tier 1 fire spells done</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="72"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="20" t="str">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="69"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="69"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="69"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="20" t="str">
         <f xml:space="preserve"> A14</f>
         <v>As a developer, I want the tier 1 ice spells done</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="78"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="75"/>
-    </row>
-    <row r="90" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="75"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="20" t="str">
+      <c r="B91" s="20"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="69"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="69"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="20" t="str">
         <f xml:space="preserve"> A15</f>
         <v>As a developer, I want the tier 1 wind spells done</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="78"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="87"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="87"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="87"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="72"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="20" t="str">
-        <f>A16</f>
-        <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
-      </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="64"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="64" t="s">
+        <v>112</v>
+      </c>
       <c r="D95" s="65"/>
       <c r="E95" s="65"/>
       <c r="F95" s="65"/>
@@ -3025,1107 +3480,1015 @@
       <c r="H95" s="66"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="69"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="66"/>
+    </row>
+    <row r="97" spans="1:8" ht="13.5" thickBot="1">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="90"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="72"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="66"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="20" t="str">
+        <f>A16</f>
+        <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="H98" s="81"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="20" t="str">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="75"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="84"/>
+    </row>
+    <row r="101" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="78"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="20" t="str">
         <f>A17</f>
         <v>As a developer, I want to implement a win/lose condition</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="66"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="69"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="56"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="69"/>
-    </row>
-    <row r="102" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="72"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="80"/>
+      <c r="H102" s="81"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="20" t="str">
-        <f>A18</f>
-        <v>As a developer, I want water terrain to hurt the player and flood the level</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="66"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="75"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="69"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="56"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="69"/>
-    </row>
-    <row r="106" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="72"/>
+      <c r="C104" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="75"/>
+    </row>
+    <row r="105" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="78"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="20" t="str">
+        <f>A18</f>
+        <v>As a developer, I want water terrain to hurt the player and flood the level</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="81"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="20" t="str">
-        <f>A19</f>
-        <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
-      </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="66"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="75"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
-      <c r="C108" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="69"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="69"/>
-    </row>
-    <row r="110" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="72"/>
+      <c r="C108" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="75"/>
+    </row>
+    <row r="109" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="78"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="20" t="str">
+        <f>A19</f>
+        <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
+      <c r="H110" s="81"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="20" t="str">
-        <f>A20</f>
-        <v>As a user, I want a free-fire mode while using the game pad</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="66"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="75"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="69"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="69"/>
-    </row>
-    <row r="114" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="72"/>
+      <c r="C112" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="75"/>
+    </row>
+    <row r="113" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="78"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="20" t="str">
+        <f>A20</f>
+        <v>As a user, I want a free-fire mode while using the game pad</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="81"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="20" t="str">
-        <f>A21</f>
-        <v>As a user, I want a mini-map to help me get around the level</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="66"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="75"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
-      <c r="C116" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="69"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="69"/>
-    </row>
-    <row r="118" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="72"/>
+      <c r="C116" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="75"/>
+    </row>
+    <row r="117" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="78"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="20" t="str">
+        <f>A21</f>
+        <v>As a user, I want a mini-map to help me get around the level</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="81"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="20" t="str">
-        <f>A22</f>
-        <v>As a user, I want multiple earth spells</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="66"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="75"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
-      <c r="C120" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="69"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="56"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="69"/>
-    </row>
-    <row r="122" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A122" s="57"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="72"/>
+      <c r="C120" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="75"/>
+    </row>
+    <row r="121" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A121" s="57"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="78"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="20" t="str">
+        <f>A22</f>
+        <v xml:space="preserve">As a user, I want multiple earth spells </v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="81"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="20" t="str">
-        <f>A23</f>
-        <v>As a user, I want multiple fire spells</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="66"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="75"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
-      <c r="C124" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="69"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="56"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D125" s="68"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
-    </row>
-    <row r="126" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" s="71"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="72"/>
+      <c r="C124" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="75"/>
+    </row>
+    <row r="125" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="78"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="20" t="str">
+        <f>A23</f>
+        <v>As a user, I want multiple fire spells</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="81"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="20" t="str">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="75"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="56"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="74"/>
+      <c r="H128" s="75"/>
+    </row>
+    <row r="129" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="78"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="20" t="str">
         <f>A24</f>
         <v>As a user, I want multiple ice spells</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="66"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="60"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="69"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="60"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="69"/>
-    </row>
-    <row r="130" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="72"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="80"/>
+      <c r="H130" s="81"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="20" t="str">
-        <f>A25</f>
-        <v>As a user, I want multiple wind spells</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="66"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="75"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="60"/>
       <c r="B132" s="60"/>
-      <c r="C132" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="68"/>
-      <c r="H132" s="69"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="69"/>
-    </row>
-    <row r="134" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="72"/>
+      <c r="C132" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="75"/>
+    </row>
+    <row r="133" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="77"/>
+      <c r="H133" s="78"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="20" t="str">
+        <f>A25</f>
+        <v>As a user, I want multiple wind spells</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="81"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="20" t="str">
-        <f>A26</f>
-        <v>As a user, I want my option configurations saved auto-magically</v>
-      </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="66"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="75"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="60"/>
       <c r="B136" s="60"/>
-      <c r="C136" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="69"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="60"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="69"/>
-    </row>
-    <row r="138" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A138" s="61"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="72"/>
+      <c r="C136" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="75"/>
+    </row>
+    <row r="137" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="78"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="20" t="str">
+        <f>A26</f>
+        <v>As a user, I want my option configurations saved auto-magically</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="81"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="20" t="str">
-        <f>A27</f>
-        <v>As a user, I want my spells to cancel out hostile spells</v>
-      </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="66"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="75"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="60"/>
       <c r="B140" s="60"/>
-      <c r="C140" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="68"/>
-      <c r="H140" s="69"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="60"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="69"/>
-    </row>
-    <row r="142" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A142" s="61"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="71"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="72"/>
+      <c r="C140" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="75"/>
+    </row>
+    <row r="141" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="78"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="20" t="str">
+        <f>A27</f>
+        <v>As a user, I want my spells to cancel out hostile spells</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="81"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="20" t="str">
-        <f>A28</f>
-        <v>As a user, I want the camera to function properly when playing with two players.</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="66"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="74"/>
+      <c r="H143" s="75"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="60"/>
       <c r="B144" s="60"/>
-      <c r="C144" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="69"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="60"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="69"/>
-    </row>
-    <row r="146" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="72"/>
+      <c r="C144" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="75"/>
+    </row>
+    <row r="145" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="78"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="20" t="str">
+        <f>A28</f>
+        <v>As a user, I want the camera to function properly when playing with two players.</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="81"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="20" t="str">
-        <f>A29</f>
-        <v>As a user, I want the earth enemies to decide which player to attack when playing with two players.</v>
-      </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="66"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="75"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="60"/>
       <c r="B148" s="60"/>
-      <c r="C148" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D148" s="68"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="68"/>
-      <c r="H148" s="69"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="60"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="68"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="69"/>
-    </row>
-    <row r="150" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A150" s="61"/>
-      <c r="B150" s="61"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="71"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="72"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="20" t="str">
+      <c r="C148" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="74"/>
+      <c r="H148" s="75"/>
+    </row>
+    <row r="149" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A149" s="61"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
+      <c r="H149" s="78"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="20" t="str">
         <f>A30</f>
         <v>As a user, I want the spells of different elements to interact with each other</v>
       </c>
-      <c r="B151" s="20"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="66"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="79"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="81"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="60"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="75"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
-      <c r="C152" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D152" s="68"/>
-      <c r="E152" s="68"/>
-      <c r="F152" s="68"/>
-      <c r="G152" s="68"/>
-      <c r="H152" s="69"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="60"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="69"/>
-    </row>
-    <row r="154" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="71"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="71"/>
-      <c r="G154" s="71"/>
-      <c r="H154" s="72"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="20" t="str">
+      <c r="C152" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="75"/>
+    </row>
+    <row r="153" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A153" s="61"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="78"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="20" t="str">
         <f>A31</f>
         <v>As a user, I want the spells to have effects on the alternate terrain</v>
       </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="66"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="79"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="80"/>
+      <c r="G154" s="80"/>
+      <c r="H154" s="81"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="75"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="60"/>
       <c r="B156" s="60"/>
-      <c r="C156" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="69"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="60"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="69"/>
-    </row>
-    <row r="158" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="71"/>
-      <c r="H158" s="72"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="20" t="str">
+      <c r="C156" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="75"/>
+    </row>
+    <row r="157" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="78"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="20" t="str">
         <f>A32</f>
         <v>As a user, I want the state of the terrain to be saved</v>
       </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="66"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="80"/>
+      <c r="E158" s="80"/>
+      <c r="F158" s="80"/>
+      <c r="G158" s="80"/>
+      <c r="H158" s="81"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="75"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="60"/>
       <c r="B160" s="60"/>
-      <c r="C160" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="69"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="D161" s="68"/>
-      <c r="E161" s="68"/>
-      <c r="F161" s="68"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="69"/>
-    </row>
-    <row r="162" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="71"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
-      <c r="G162" s="71"/>
-      <c r="H162" s="72"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="20" t="str">
+      <c r="C160" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="75"/>
+    </row>
+    <row r="161" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A161" s="61"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="77"/>
+      <c r="H161" s="78"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="20" t="str">
         <f>A33</f>
         <v>As a user, I want to play different multiplayer game modes such as co-op and death-match</v>
       </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="65"/>
-      <c r="H163" s="66"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="79"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="80"/>
+      <c r="F162" s="80"/>
+      <c r="G162" s="80"/>
+      <c r="H162" s="81"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="74"/>
+      <c r="E163" s="74"/>
+      <c r="F163" s="74"/>
+      <c r="G163" s="74"/>
+      <c r="H163" s="75"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="60"/>
       <c r="B164" s="60"/>
-      <c r="C164" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="69"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="60"/>
-      <c r="B165" s="60"/>
-      <c r="C165" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="69"/>
-    </row>
-    <row r="166" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="71"/>
-      <c r="G166" s="71"/>
-      <c r="H166" s="72"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="20" t="str">
+      <c r="C164" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="75"/>
+    </row>
+    <row r="165" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A165" s="61"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="77"/>
+      <c r="G165" s="77"/>
+      <c r="H165" s="78"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="20" t="str">
         <f>A34</f>
         <v>As a user, I want to transition between levels</v>
       </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="65"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="65"/>
-      <c r="H167" s="66"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="79"/>
+      <c r="D166" s="80"/>
+      <c r="E166" s="80"/>
+      <c r="F166" s="80"/>
+      <c r="G166" s="80"/>
+      <c r="H166" s="81"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="75"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="60"/>
       <c r="B168" s="60"/>
-      <c r="C168" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" s="68"/>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="69"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="60"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D169" s="68"/>
-      <c r="E169" s="68"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="69"/>
-    </row>
-    <row r="170" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A170" s="61"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="71"/>
-      <c r="H170" s="72"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="20" t="str">
+      <c r="C168" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="75"/>
+    </row>
+    <row r="169" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="77"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="77"/>
+      <c r="G169" s="77"/>
+      <c r="H169" s="78"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="20" t="str">
         <f>A35</f>
         <v>As a user, I would like to have a HUD.</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="66"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="79"/>
+      <c r="D170" s="80"/>
+      <c r="E170" s="80"/>
+      <c r="F170" s="80"/>
+      <c r="G170" s="80"/>
+      <c r="H170" s="81"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="75"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="60"/>
       <c r="B172" s="60"/>
-      <c r="C172" s="67" t="s">
+      <c r="C172" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="75"/>
+    </row>
+    <row r="173" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A173" s="61"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="78"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="20" t="str">
+        <f>A39</f>
+        <v>As a Designer, I want the Earth Enemy to be different from the other enemies</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="79"/>
+      <c r="D174" s="80"/>
+      <c r="E174" s="80"/>
+      <c r="F174" s="80"/>
+      <c r="G174" s="80"/>
+      <c r="H174" s="81"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="62"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D172" s="68"/>
-      <c r="E172" s="68"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="69"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="60"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="D173" s="68"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="69"/>
-    </row>
-    <row r="174" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D174" s="71"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="71"/>
-      <c r="G174" s="71"/>
-      <c r="H174" s="72"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="20" t="str">
-        <f>A36</f>
-        <v>As an Everyman, I want the enemies to behave differently</v>
-      </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="65"/>
-      <c r="H175" s="66"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="75"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="62"/>
       <c r="B176" s="62"/>
-      <c r="C176" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D176" s="68"/>
-      <c r="E176" s="68"/>
-      <c r="F176" s="68"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="69"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="62"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="69"/>
-    </row>
-    <row r="178" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A178" s="63"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="D178" s="71"/>
-      <c r="E178" s="71"/>
-      <c r="F178" s="71"/>
-      <c r="G178" s="71"/>
-      <c r="H178" s="72"/>
+      <c r="C176" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="74"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="75"/>
+    </row>
+    <row r="177" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A177" s="63"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="78"/>
     </row>
   </sheetData>
   <sortState ref="A4:A36">
     <sortCondition ref="A36"/>
   </sortState>
-  <mergeCells count="137">
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
+  <mergeCells count="133">
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C153:H153"/>
     <mergeCell ref="C154:H154"/>
     <mergeCell ref="C155:H155"/>
     <mergeCell ref="C156:H156"/>
     <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C158:H158"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C141:H141"/>
     <mergeCell ref="C142:H142"/>
     <mergeCell ref="C143:H143"/>
     <mergeCell ref="C144:H144"/>
@@ -4137,34 +4500,110 @@
     <mergeCell ref="C150:H150"/>
     <mergeCell ref="C151:H151"/>
     <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C159:H159"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C175:H175"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C177:H177"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="C172:H172"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K39">
       <formula1>student_names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H36 J3:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H39 J3:J39">
       <formula1>value_in_hours</formula1>
     </dataValidation>
   </dataValidations>

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t>User Stories</t>
   </si>
@@ -512,15 +512,6 @@
     <t>HUD updates as game information changes</t>
   </si>
   <si>
-    <t>Enemy types attack the players differently</t>
-  </si>
-  <si>
-    <t>Enemy types have different priorities.</t>
-  </si>
-  <si>
-    <t>Enemy types have different states/"behaviors"</t>
-  </si>
-  <si>
     <t>Jonathan Caro</t>
   </si>
   <si>
@@ -543,6 +534,27 @@
   </si>
   <si>
     <t xml:space="preserve">As a user, I want multiple earth spells </t>
+  </si>
+  <si>
+    <t>Fire Enemies can break terrain to reach player</t>
+  </si>
+  <si>
+    <t>Wind enemies swarm the player using flocking</t>
+  </si>
+  <si>
+    <t>Wind enemies can fly around the map to follow the player</t>
+  </si>
+  <si>
+    <t>Earth enemies partol their territory</t>
+  </si>
+  <si>
+    <t>Earth enemies cant fall off cliffs</t>
+  </si>
+  <si>
+    <t>Fire enemies cant fall off cliffs</t>
+  </si>
+  <si>
+    <t>Ice enemies can traverse terrain to track player</t>
   </si>
 </sst>
 </file>
@@ -907,7 +919,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1017,84 +1029,90 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1666,7 +1684,7 @@
     </row>
     <row r="5" spans="1:3" ht="13.5" thickTop="1">
       <c r="A5" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -1706,10 +1724,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="44"/>
     </row>
@@ -1759,10 +1777,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1847,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1901,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1928,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1955,7 +1973,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2171,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2252,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2338,7 +2356,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4">
@@ -2360,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2441,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2495,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2562,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2616,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2702,7 +2720,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4">
@@ -2729,7 +2747,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4">
@@ -2756,7 +2774,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4">
@@ -2778,12 +2796,12 @@
         <v>16</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4">
@@ -2805,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1">
@@ -2885,14 +2903,14 @@
       <c r="B45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="20" t="str">
@@ -2900,48 +2918,48 @@
         <v>As a designer, I want a final boss, decided by how quickly the player gets to the end.</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="72"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="80"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" thickBot="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="77"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="20" t="str">
@@ -2949,46 +2967,46 @@
         <v>As a designer, I want an attract mode that attracts people.</v>
       </c>
       <c r="B50" s="23"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="77"/>
     </row>
     <row r="53" spans="1:8" ht="13.5" thickBot="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="20" t="str">
@@ -2996,58 +3014,58 @@
         <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
       </c>
       <c r="B54" s="23"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="72"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="80"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="77"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="77"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="69"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="77"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="69"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="20" t="str">
@@ -3055,44 +3073,44 @@
         <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
       </c>
       <c r="B59" s="23"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="72"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="80"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="69"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="77"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="69"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="77"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="69"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="20" t="str">
@@ -3100,48 +3118,48 @@
         <v>As a designer, I want the player to hit switches to progress through the level</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="72"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="69"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="77"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="69"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="20" t="str">
@@ -3149,44 +3167,44 @@
         <v>As a developer, I want Lava terrain to hurt the player</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="72"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="69"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="77"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="69"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="77"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="69"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="77"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="20" t="str">
@@ -3194,44 +3212,44 @@
         <v>As a developer, I want the Air Currents in the game that push the player around</v>
       </c>
       <c r="B71" s="23"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="72"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="69"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="77"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="69"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="77"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="69"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="77"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="20" t="str">
@@ -3239,44 +3257,44 @@
         <v>As a developer, I want the enemy spawner to respawn enemies</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="80"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="67" t="s">
+      <c r="C76" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="69"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="77"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="77"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="69"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="77"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="str">
@@ -3284,48 +3302,48 @@
         <v>As a developer, I want the game to be arcade machine compliant</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="72"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="80"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="69"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="77"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="69"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="77"/>
     </row>
     <row r="82" spans="1:8" ht="13.5" thickBot="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="69"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="77"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="20" t="str">
@@ -3333,46 +3351,46 @@
         <v>As a developer, I want the particle engine to be complete</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="72"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="80"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="69"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="77"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="69"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" thickBot="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="69"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="77"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="20" t="str">
@@ -3380,44 +3398,44 @@
         <v>As a developer, I want the tier 1 fire spells done</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="80"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="69"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="77"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="69"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="77"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="69"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="77"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="20" t="str">
@@ -3425,34 +3443,34 @@
         <v>As a developer, I want the tier 1 ice spells done</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="80"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="69"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="77"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="69"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="77"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="20" t="str">
@@ -3460,44 +3478,44 @@
         <v>As a developer, I want the tier 1 wind spells done</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="72"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="80"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="66"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="66"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="92"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="66"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="92"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="20" t="str">
@@ -3505,48 +3523,48 @@
         <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="80"/>
-      <c r="H98" s="81"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="68"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
-      <c r="C99" s="73" t="s">
+      <c r="C99" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="75"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="71"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
-      <c r="C100" s="82" t="s">
+      <c r="C100" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="84"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="89"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
-      <c r="C101" s="76" t="s">
+      <c r="C101" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="78"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="74"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="20" t="str">
@@ -3554,46 +3572,46 @@
         <v>As a developer, I want to implement a win/lose condition</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="81"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="68"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
-      <c r="C103" s="73" t="s">
+      <c r="C103" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="75"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="71"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="73" t="s">
+      <c r="C104" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="75"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="71"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="78"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="74"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="20" t="str">
@@ -3601,46 +3619,46 @@
         <v>As a developer, I want water terrain to hurt the player and flood the level</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="80"/>
-      <c r="H106" s="81"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="68"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="75"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="71"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="75"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="71"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="78"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="74"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="20" t="str">
@@ -3648,48 +3666,48 @@
         <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
-      <c r="F110" s="80"/>
-      <c r="G110" s="80"/>
-      <c r="H110" s="81"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="68"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
-      <c r="C111" s="73" t="s">
+      <c r="C111" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="75"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="71"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="73" t="s">
+      <c r="C112" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="75"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="71"/>
     </row>
     <row r="113" spans="1:8" ht="13.5" thickBot="1">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
-      <c r="C113" s="76" t="s">
+      <c r="C113" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="78"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="74"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="20" t="str">
@@ -3697,46 +3715,46 @@
         <v>As a user, I want a free-fire mode while using the game pad</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="79"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="80"/>
-      <c r="H114" s="81"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="68"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
-      <c r="C115" s="73" t="s">
+      <c r="C115" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="75"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="71"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
-      <c r="C116" s="73" t="s">
+      <c r="C116" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="75"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="71"/>
     </row>
     <row r="117" spans="1:8" ht="13.5" thickBot="1">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="78"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="74"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="20" t="str">
@@ -3744,46 +3762,46 @@
         <v>As a user, I want a mini-map to help me get around the level</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="81"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="68"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="75"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="71"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="75"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="71"/>
     </row>
     <row r="121" spans="1:8" ht="13.5" thickBot="1">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="78"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="74"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="20" t="str">
@@ -3791,48 +3809,48 @@
         <v xml:space="preserve">As a user, I want multiple earth spells </v>
       </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="81"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="68"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
-      <c r="C123" s="73" t="s">
+      <c r="C123" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="75"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="71"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
-      <c r="C124" s="73" t="s">
+      <c r="C124" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="75"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="71"/>
     </row>
     <row r="125" spans="1:8" ht="13.5" thickBot="1">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
-      <c r="C125" s="76" t="s">
+      <c r="C125" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="78"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="74"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="20" t="str">
@@ -3840,48 +3858,48 @@
         <v>As a user, I want multiple fire spells</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="79"/>
-      <c r="D126" s="80"/>
-      <c r="E126" s="80"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="81"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="68"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
-      <c r="C127" s="73" t="s">
+      <c r="C127" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="74"/>
-      <c r="H127" s="75"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="71"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
-      <c r="C128" s="73" t="s">
+      <c r="C128" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="74"/>
-      <c r="H128" s="75"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="71"/>
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="77"/>
-      <c r="H129" s="78"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="73"/>
+      <c r="H129" s="74"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="20" t="str">
@@ -3889,48 +3907,48 @@
         <v>As a user, I want multiple ice spells</v>
       </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="79"/>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
-      <c r="F130" s="80"/>
-      <c r="G130" s="80"/>
-      <c r="H130" s="81"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="68"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="60"/>
       <c r="B131" s="60"/>
-      <c r="C131" s="73" t="s">
+      <c r="C131" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="75"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="71"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="60"/>
       <c r="B132" s="60"/>
-      <c r="C132" s="73" t="s">
+      <c r="C132" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="75"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="71"/>
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1">
       <c r="A133" s="61"/>
       <c r="B133" s="61"/>
-      <c r="C133" s="76" t="s">
+      <c r="C133" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="77"/>
-      <c r="H133" s="78"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="74"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="20" t="str">
@@ -3938,48 +3956,48 @@
         <v>As a user, I want multiple wind spells</v>
       </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="80"/>
-      <c r="E134" s="80"/>
-      <c r="F134" s="80"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="81"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="68"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="60"/>
       <c r="B135" s="60"/>
-      <c r="C135" s="73" t="s">
+      <c r="C135" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="75"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="71"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="60"/>
       <c r="B136" s="60"/>
-      <c r="C136" s="73" t="s">
+      <c r="C136" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="75"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="70"/>
+      <c r="H136" s="71"/>
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1">
       <c r="A137" s="61"/>
       <c r="B137" s="61"/>
-      <c r="C137" s="76" t="s">
+      <c r="C137" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="77"/>
-      <c r="H137" s="78"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="74"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="20" t="str">
@@ -3987,46 +4005,46 @@
         <v>As a user, I want my option configurations saved auto-magically</v>
       </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="80"/>
-      <c r="E138" s="80"/>
-      <c r="F138" s="80"/>
-      <c r="G138" s="80"/>
-      <c r="H138" s="81"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="68"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="60"/>
       <c r="B139" s="60"/>
-      <c r="C139" s="73" t="s">
+      <c r="C139" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="75"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
+      <c r="H139" s="71"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="60"/>
       <c r="B140" s="60"/>
-      <c r="C140" s="73" t="s">
+      <c r="C140" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="75"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="70"/>
+      <c r="G140" s="70"/>
+      <c r="H140" s="71"/>
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1">
       <c r="A141" s="61"/>
       <c r="B141" s="61"/>
-      <c r="C141" s="76"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="77"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="78"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="74"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="20" t="str">
@@ -4034,46 +4052,46 @@
         <v>As a user, I want my spells to cancel out hostile spells</v>
       </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="79"/>
-      <c r="D142" s="80"/>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
-      <c r="G142" s="80"/>
-      <c r="H142" s="81"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="68"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="60"/>
       <c r="B143" s="60"/>
-      <c r="C143" s="73" t="s">
+      <c r="C143" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="75"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="71"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="60"/>
       <c r="B144" s="60"/>
-      <c r="C144" s="73" t="s">
+      <c r="C144" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="75"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="71"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" thickBot="1">
       <c r="A145" s="61"/>
       <c r="B145" s="61"/>
-      <c r="C145" s="76"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="78"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="73"/>
+      <c r="H145" s="74"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="20" t="str">
@@ -4081,46 +4099,46 @@
         <v>As a user, I want the camera to function properly when playing with two players.</v>
       </c>
       <c r="B146" s="20"/>
-      <c r="C146" s="79"/>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
-      <c r="F146" s="80"/>
-      <c r="G146" s="80"/>
-      <c r="H146" s="81"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="68"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="60"/>
       <c r="B147" s="60"/>
-      <c r="C147" s="73" t="s">
+      <c r="C147" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="75"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="71"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="60"/>
       <c r="B148" s="60"/>
-      <c r="C148" s="73" t="s">
+      <c r="C148" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="74"/>
-      <c r="H148" s="75"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="71"/>
     </row>
     <row r="149" spans="1:8" ht="13.5" thickBot="1">
       <c r="A149" s="61"/>
       <c r="B149" s="61"/>
-      <c r="C149" s="76"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="78"/>
+      <c r="C149" s="72"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="73"/>
+      <c r="H149" s="74"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="20" t="str">
@@ -4128,48 +4146,48 @@
         <v>As a user, I want the spells of different elements to interact with each other</v>
       </c>
       <c r="B150" s="20"/>
-      <c r="C150" s="79"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="80"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="80"/>
-      <c r="H150" s="81"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="68"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="60"/>
       <c r="B151" s="60"/>
-      <c r="C151" s="73" t="s">
+      <c r="C151" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="75"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="70"/>
+      <c r="H151" s="71"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
-      <c r="C152" s="73" t="s">
+      <c r="C152" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="75"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="70"/>
+      <c r="F152" s="70"/>
+      <c r="G152" s="70"/>
+      <c r="H152" s="71"/>
     </row>
     <row r="153" spans="1:8" ht="13.5" thickBot="1">
       <c r="A153" s="61"/>
       <c r="B153" s="61"/>
-      <c r="C153" s="76" t="s">
+      <c r="C153" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="77"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="77"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="78"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="73"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="74"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="20" t="str">
@@ -4177,46 +4195,46 @@
         <v>As a user, I want the spells to have effects on the alternate terrain</v>
       </c>
       <c r="B154" s="20"/>
-      <c r="C154" s="79"/>
-      <c r="D154" s="80"/>
-      <c r="E154" s="80"/>
-      <c r="F154" s="80"/>
-      <c r="G154" s="80"/>
-      <c r="H154" s="81"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="68"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="60"/>
       <c r="B155" s="60"/>
-      <c r="C155" s="73" t="s">
+      <c r="C155" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="75"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
+      <c r="H155" s="71"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="60"/>
       <c r="B156" s="60"/>
-      <c r="C156" s="73" t="s">
+      <c r="C156" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="74"/>
-      <c r="H156" s="75"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="71"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" thickBot="1">
       <c r="A157" s="61"/>
       <c r="B157" s="61"/>
-      <c r="C157" s="76"/>
-      <c r="D157" s="77"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="77"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="78"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="73"/>
+      <c r="H157" s="74"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="20" t="str">
@@ -4224,46 +4242,46 @@
         <v>As a user, I want the state of the terrain to be saved</v>
       </c>
       <c r="B158" s="20"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="80"/>
-      <c r="E158" s="80"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="80"/>
-      <c r="H158" s="81"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="68"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="60"/>
       <c r="B159" s="60"/>
-      <c r="C159" s="73" t="s">
+      <c r="C159" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="75"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="70"/>
+      <c r="G159" s="70"/>
+      <c r="H159" s="71"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="60"/>
       <c r="B160" s="60"/>
-      <c r="C160" s="73" t="s">
+      <c r="C160" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="75"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
+      <c r="H160" s="71"/>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1">
       <c r="A161" s="61"/>
       <c r="B161" s="61"/>
-      <c r="C161" s="76"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="77"/>
-      <c r="G161" s="77"/>
-      <c r="H161" s="78"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="73"/>
+      <c r="H161" s="74"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="20" t="str">
@@ -4271,48 +4289,48 @@
         <v>As a user, I want to play different multiplayer game modes such as co-op and death-match</v>
       </c>
       <c r="B162" s="20"/>
-      <c r="C162" s="79"/>
-      <c r="D162" s="80"/>
-      <c r="E162" s="80"/>
-      <c r="F162" s="80"/>
-      <c r="G162" s="80"/>
-      <c r="H162" s="81"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="68"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="60"/>
       <c r="B163" s="60"/>
-      <c r="C163" s="73" t="s">
+      <c r="C163" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D163" s="74"/>
-      <c r="E163" s="74"/>
-      <c r="F163" s="74"/>
-      <c r="G163" s="74"/>
-      <c r="H163" s="75"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70"/>
+      <c r="H163" s="71"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="60"/>
       <c r="B164" s="60"/>
-      <c r="C164" s="73" t="s">
+      <c r="C164" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="74"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="75"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70"/>
+      <c r="H164" s="71"/>
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1">
       <c r="A165" s="61"/>
       <c r="B165" s="61"/>
-      <c r="C165" s="76" t="s">
+      <c r="C165" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D165" s="77"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="77"/>
-      <c r="G165" s="77"/>
-      <c r="H165" s="78"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="74"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="20" t="str">
@@ -4320,46 +4338,46 @@
         <v>As a user, I want to transition between levels</v>
       </c>
       <c r="B166" s="20"/>
-      <c r="C166" s="79"/>
-      <c r="D166" s="80"/>
-      <c r="E166" s="80"/>
-      <c r="F166" s="80"/>
-      <c r="G166" s="80"/>
-      <c r="H166" s="81"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="68"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="60"/>
       <c r="B167" s="60"/>
-      <c r="C167" s="73" t="s">
+      <c r="C167" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="75"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="71"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="60"/>
       <c r="B168" s="60"/>
-      <c r="C168" s="73" t="s">
+      <c r="C168" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="75"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70"/>
+      <c r="G168" s="70"/>
+      <c r="H168" s="71"/>
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1">
       <c r="A169" s="61"/>
       <c r="B169" s="61"/>
-      <c r="C169" s="76"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="78"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="73"/>
+      <c r="E169" s="73"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="73"/>
+      <c r="H169" s="74"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="20" t="str">
@@ -4367,212 +4385,252 @@
         <v>As a user, I would like to have a HUD.</v>
       </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="79"/>
-      <c r="D170" s="80"/>
-      <c r="E170" s="80"/>
-      <c r="F170" s="80"/>
-      <c r="G170" s="80"/>
-      <c r="H170" s="81"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="68"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="60"/>
       <c r="B171" s="60"/>
-      <c r="C171" s="73" t="s">
+      <c r="C171" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="75"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="70"/>
+      <c r="H171" s="71"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="60"/>
       <c r="B172" s="60"/>
-      <c r="C172" s="73" t="s">
+      <c r="C172" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="75"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="70"/>
+      <c r="G172" s="70"/>
+      <c r="H172" s="71"/>
     </row>
     <row r="173" spans="1:8" ht="13.5" thickBot="1">
       <c r="A173" s="61"/>
       <c r="B173" s="61"/>
-      <c r="C173" s="76" t="s">
+      <c r="C173" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="78"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="73"/>
+      <c r="H173" s="74"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="20" t="str">
-        <f>A39</f>
-        <v>As a Designer, I want the Earth Enemy to be different from the other enemies</v>
+        <f>A36</f>
+        <v>As a Designer, I want the Fire Enemy to be different from the other enemies</v>
       </c>
       <c r="B174" s="20"/>
-      <c r="C174" s="79"/>
-      <c r="D174" s="80"/>
-      <c r="E174" s="80"/>
-      <c r="F174" s="80"/>
-      <c r="G174" s="80"/>
-      <c r="H174" s="81"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="67"/>
+      <c r="H174" s="68"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="62"/>
       <c r="B175" s="62"/>
-      <c r="C175" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="75"/>
+      <c r="C175" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="70"/>
+      <c r="H175" s="71"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="62"/>
       <c r="B176" s="62"/>
-      <c r="C176" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="74"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="75"/>
+      <c r="C176" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" s="70"/>
+      <c r="E176" s="70"/>
+      <c r="F176" s="70"/>
+      <c r="G176" s="70"/>
+      <c r="H176" s="71"/>
     </row>
     <row r="177" spans="1:8" ht="13.5" thickBot="1">
       <c r="A177" s="63"/>
       <c r="B177" s="63"/>
-      <c r="C177" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="78"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="73"/>
+      <c r="E177" s="73"/>
+      <c r="F177" s="73"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="74"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="20" t="str">
+        <f>A37</f>
+        <v>As a Designer, I want the Ice Enemy to be different from the other enemies</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="67"/>
+      <c r="E178" s="67"/>
+      <c r="F178" s="67"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="68"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="64"/>
+      <c r="B179" s="64"/>
+      <c r="C179" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="70"/>
+      <c r="E179" s="70"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="71"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="64"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+      <c r="F180" s="70"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="71"/>
+    </row>
+    <row r="181" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A181" s="65"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="73"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="73"/>
+      <c r="H181" s="74"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="20" t="str">
+        <f>A38</f>
+        <v>As a Designer, I want the Wind Enemy to be different from the other enemies</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="68"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="64"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="71"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="64"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="71"/>
+    </row>
+    <row r="185" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A185" s="65"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="73"/>
+      <c r="E185" s="73"/>
+      <c r="F185" s="73"/>
+      <c r="G185" s="73"/>
+      <c r="H185" s="74"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="20" t="str">
+        <f>A39</f>
+        <v>As a Designer, I want the Earth Enemy to be different from the other enemies</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="67"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="68"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="71"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="64"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188" s="70"/>
+      <c r="E188" s="70"/>
+      <c r="F188" s="70"/>
+      <c r="G188" s="70"/>
+      <c r="H188" s="71"/>
+    </row>
+    <row r="189" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A189" s="65"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="73"/>
+      <c r="F189" s="73"/>
+      <c r="G189" s="73"/>
+      <c r="H189" s="74"/>
     </row>
   </sheetData>
   <sortState ref="A4:A36">
     <sortCondition ref="A36"/>
   </sortState>
-  <mergeCells count="133">
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="C175:H175"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C177:H177"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="C172:H172"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="C158:H158"/>
-    <mergeCell ref="C159:H159"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C154:H154"/>
-    <mergeCell ref="C155:H155"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C146:H146"/>
-    <mergeCell ref="C147:H147"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
+  <mergeCells count="145">
+    <mergeCell ref="C187:H187"/>
+    <mergeCell ref="C188:H188"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="C180:H180"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="C182:H182"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="C184:H184"/>
+    <mergeCell ref="C185:H185"/>
+    <mergeCell ref="C186:H186"/>
     <mergeCell ref="C97:H97"/>
     <mergeCell ref="C96:H96"/>
     <mergeCell ref="C62:H62"/>
@@ -4597,6 +4655,115 @@
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C76:H76"/>
     <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C154:H154"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C177:H177"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="C173:H173"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">

--- a/Lapidem/documentation/Sprint 3 UserStories.xlsx
+++ b/Lapidem/documentation/Sprint 3 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="173">
   <si>
     <t>User Stories</t>
   </si>
@@ -512,6 +512,15 @@
     <t>HUD updates as game information changes</t>
   </si>
   <si>
+    <t>Enemy types attack the players differently</t>
+  </si>
+  <si>
+    <t>Enemy types have different priorities.</t>
+  </si>
+  <si>
+    <t>Enemy types have different states/"behaviors"</t>
+  </si>
+  <si>
     <t>Jonathan Caro</t>
   </si>
   <si>
@@ -534,27 +543,6 @@
   </si>
   <si>
     <t xml:space="preserve">As a user, I want multiple earth spells </t>
-  </si>
-  <si>
-    <t>Fire Enemies can break terrain to reach player</t>
-  </si>
-  <si>
-    <t>Wind enemies swarm the player using flocking</t>
-  </si>
-  <si>
-    <t>Wind enemies can fly around the map to follow the player</t>
-  </si>
-  <si>
-    <t>Earth enemies partol their territory</t>
-  </si>
-  <si>
-    <t>Earth enemies cant fall off cliffs</t>
-  </si>
-  <si>
-    <t>Fire enemies cant fall off cliffs</t>
-  </si>
-  <si>
-    <t>Ice enemies can traverse terrain to track player</t>
   </si>
 </sst>
 </file>
@@ -617,7 +605,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +633,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,10 +931,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -965,7 +976,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1010,9 +1020,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1028,33 +1035,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1115,6 +1116,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1431,7 +1469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="95.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="95.5703125" style="17" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -1440,195 +1478,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>4</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="C5" s="11">
+      <c r="A5" s="2"/>
+      <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>16</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
         <v>40</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>80</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="12" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="25.5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25.5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1654,112 +1692,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" thickTop="1">
-      <c r="A5" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="44"/>
+      <c r="A9" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickTop="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="39"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:3" ht="13.5" thickTop="1"/>
   </sheetData>
@@ -1777,1112 +1815,1112 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="15" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="14" t="str">
+      <c r="B2" s="6"/>
+      <c r="C2" s="13" t="str">
         <f>'Team info'!A5</f>
         <v>Jonathan Caro</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="13" t="str">
         <f>'Team info'!A6</f>
         <v>Mike Hatter</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="13" t="str">
         <f>'Team info'!A7</f>
         <v>Pablo Leon</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Team info'!A8</f>
         <v>Sam Mathis</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="13" t="str">
         <f>'Team info'!A9</f>
         <v>Xiaodong Weng</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>'Team info'!A10</f>
         <v>0</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2">
+      <c r="B3" s="93"/>
+      <c r="C3" s="97">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="97">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="E3" s="97"/>
+      <c r="F3" s="97">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="97">
         <v>8</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="2">
+      <c r="H3" s="97"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="97">
         <v>16</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>163</v>
+      <c r="K3" s="98" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90">
+        <v>4</v>
+      </c>
+      <c r="D4" s="90">
+        <v>4</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90">
+        <v>4</v>
+      </c>
+      <c r="G4" s="90">
+        <v>4</v>
+      </c>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90">
+        <v>4</v>
+      </c>
+      <c r="K4" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="B5" s="100"/>
+      <c r="C5" s="101">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="101">
+        <v>4</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="101">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="4">
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101">
         <v>2</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>162</v>
+      <c r="K5" s="102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>162</v>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101">
+        <v>4</v>
+      </c>
+      <c r="D6" s="101">
+        <v>4</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101">
+        <v>4</v>
+      </c>
+      <c r="G6" s="101">
+        <v>4</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101">
+        <v>4</v>
+      </c>
+      <c r="K6" s="102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="94">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="E7" s="94"/>
+      <c r="F7" s="94">
         <v>16</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="94">
         <v>16</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="4">
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94">
         <v>16</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>163</v>
+      <c r="K7" s="95" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
+      <c r="B8" s="89"/>
+      <c r="C8" s="90">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="90">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="E8" s="90"/>
+      <c r="F8" s="90">
         <v>2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="90">
         <v>2</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="4">
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90">
         <v>2</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="26" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="105">
+        <v>4</v>
+      </c>
+      <c r="D9" s="105">
+        <v>4</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
+        <v>4</v>
+      </c>
+      <c r="G9" s="105">
+        <v>4</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
+        <v>4</v>
+      </c>
+      <c r="K9" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="4">
-        <v>4</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="105">
+        <v>4</v>
+      </c>
+      <c r="D10" s="105">
+        <v>4</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105">
+        <v>4</v>
+      </c>
+      <c r="G10" s="105">
+        <v>4</v>
+      </c>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105">
+        <v>4</v>
+      </c>
+      <c r="K10" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="B11" s="103"/>
+      <c r="C11" s="105">
+        <v>4</v>
+      </c>
+      <c r="D11" s="105">
+        <v>4</v>
+      </c>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="G11" s="105">
+        <v>4</v>
+      </c>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105">
+        <v>4</v>
+      </c>
+      <c r="K11" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4">
+      <c r="B12" s="88"/>
+      <c r="C12" s="90">
         <v>16</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="90">
         <v>8</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="90">
         <v>8</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="4">
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90">
         <v>8</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="105">
         <v>2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="E13" s="105"/>
+      <c r="F13" s="105">
         <v>2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="105">
         <v>2</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="4">
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105">
         <v>2</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="4">
-        <v>4</v>
-      </c>
-      <c r="K14" s="26" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90">
+        <v>4</v>
+      </c>
+      <c r="D14" s="90">
+        <v>4</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90">
+        <v>4</v>
+      </c>
+      <c r="G14" s="90">
+        <v>4</v>
+      </c>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90">
+        <v>4</v>
+      </c>
+      <c r="K14" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="100"/>
+      <c r="C15" s="101">
+        <v>4</v>
+      </c>
+      <c r="D15" s="101">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="E15" s="101"/>
+      <c r="F15" s="101">
         <v>8</v>
       </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="4">
-        <v>4</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>162</v>
+      <c r="G15" s="101">
+        <v>4</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101">
+        <v>4</v>
+      </c>
+      <c r="K15" s="102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105">
         <v>12</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="105">
         <v>8</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
+      <c r="E16" s="105"/>
+      <c r="F16" s="105">
         <v>8</v>
       </c>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="4">
+      <c r="G16" s="105">
+        <v>4</v>
+      </c>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105">
         <v>8</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4">
+      <c r="B17" s="88"/>
+      <c r="C17" s="90">
         <v>8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="90">
         <v>8</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
+      <c r="E17" s="90"/>
+      <c r="F17" s="90">
         <v>12</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="90">
         <v>12</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="4">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90">
         <v>8</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4">
+      <c r="B18" s="92"/>
+      <c r="C18" s="94">
         <v>12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="94">
         <v>16</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="94">
         <v>8</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="4">
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94">
         <v>8</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>163</v>
+      <c r="K18" s="95" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4">
+      <c r="B19" s="103"/>
+      <c r="C19" s="105">
         <v>8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="105">
         <v>8</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="105"/>
+      <c r="F19" s="105">
+        <v>4</v>
+      </c>
+      <c r="G19" s="105">
         <v>8</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="4">
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105">
         <v>8</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4">
+      <c r="B20" s="103"/>
+      <c r="C20" s="105">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="105">
         <v>12</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="E20" s="105"/>
+      <c r="F20" s="105">
         <v>8</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="105">
         <v>8</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="4">
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105">
         <v>8</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4">
+      <c r="B21" s="88"/>
+      <c r="C21" s="90">
         <v>16</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="90">
         <v>16</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="E21" s="90"/>
+      <c r="F21" s="90">
         <v>16</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="90">
         <v>16</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="4">
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90">
         <v>16</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="91" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101">
+        <v>40</v>
+      </c>
+      <c r="D22" s="101">
+        <v>40</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101">
+        <v>40</v>
+      </c>
+      <c r="G22" s="101">
+        <v>40</v>
+      </c>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101">
+        <v>40</v>
+      </c>
+      <c r="K22" s="102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="105">
+        <v>8</v>
+      </c>
+      <c r="D23" s="105">
+        <v>8</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105">
+        <v>8</v>
+      </c>
+      <c r="G23" s="105">
+        <v>8</v>
+      </c>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105">
+        <v>8</v>
+      </c>
+      <c r="K23" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="90">
+        <v>16</v>
+      </c>
+      <c r="D24" s="90">
+        <v>12</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90">
+        <v>12</v>
+      </c>
+      <c r="G24" s="90">
+        <v>12</v>
+      </c>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90">
+        <v>12</v>
+      </c>
+      <c r="K24" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="101">
+        <v>16</v>
+      </c>
+      <c r="D25" s="101">
+        <v>16</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101">
+        <v>16</v>
+      </c>
+      <c r="G25" s="101">
+        <v>16</v>
+      </c>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101">
+        <v>16</v>
+      </c>
+      <c r="K25" s="102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="90">
+        <v>8</v>
+      </c>
+      <c r="D26" s="90">
+        <v>4</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90">
+        <v>8</v>
+      </c>
+      <c r="G26" s="90">
+        <v>8</v>
+      </c>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90">
+        <v>4</v>
+      </c>
+      <c r="K26" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="94">
+        <v>2</v>
+      </c>
+      <c r="D27" s="94">
+        <v>4</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94">
+        <v>2</v>
+      </c>
+      <c r="G27" s="94">
+        <v>2</v>
+      </c>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94">
+        <v>2</v>
+      </c>
+      <c r="K27" s="95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="103"/>
+      <c r="C28" s="105">
+        <v>8</v>
+      </c>
+      <c r="D28" s="105">
+        <v>8</v>
+      </c>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105">
+        <v>4</v>
+      </c>
+      <c r="G28" s="105">
+        <v>8</v>
+      </c>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105">
+        <v>4</v>
+      </c>
+      <c r="K28" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="94">
+        <v>16</v>
+      </c>
+      <c r="D30" s="94">
+        <v>16</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94">
+        <v>16</v>
+      </c>
+      <c r="G30" s="94">
+        <v>16</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94">
+        <v>16</v>
+      </c>
+      <c r="K30" s="95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="105">
+        <v>12</v>
+      </c>
+      <c r="D31" s="105">
+        <v>16</v>
+      </c>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105">
+        <v>12</v>
+      </c>
+      <c r="G31" s="105">
+        <v>16</v>
+      </c>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105">
+        <v>12</v>
+      </c>
+      <c r="K31" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="94">
+        <v>8</v>
+      </c>
+      <c r="D32" s="94">
+        <v>12</v>
+      </c>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94">
+        <v>8</v>
+      </c>
+      <c r="G32" s="94">
+        <v>8</v>
+      </c>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94">
+        <v>12</v>
+      </c>
+      <c r="K32" s="95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="105">
+        <v>16</v>
+      </c>
+      <c r="D33" s="105">
+        <v>16</v>
+      </c>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105">
+        <v>12</v>
+      </c>
+      <c r="G33" s="105">
+        <v>16</v>
+      </c>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105">
+        <v>16</v>
+      </c>
+      <c r="K33" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="90">
+        <v>12</v>
+      </c>
+      <c r="D34" s="90">
+        <v>12</v>
+      </c>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90">
+        <v>8</v>
+      </c>
+      <c r="G34" s="90">
+        <v>12</v>
+      </c>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90">
+        <v>12</v>
+      </c>
+      <c r="K34" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="88"/>
+      <c r="C35" s="90">
+        <v>12</v>
+      </c>
+      <c r="D35" s="90">
+        <v>8</v>
+      </c>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90">
+        <v>12</v>
+      </c>
+      <c r="G35" s="90">
+        <v>12</v>
+      </c>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90">
+        <v>8</v>
+      </c>
+      <c r="K35" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="103"/>
+      <c r="C36" s="105">
+        <v>16</v>
+      </c>
+      <c r="D36" s="105">
+        <v>12</v>
+      </c>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105">
+        <v>12</v>
+      </c>
+      <c r="G36" s="105">
+        <v>12</v>
+      </c>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105">
+        <v>12</v>
+      </c>
+      <c r="K36" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4">
-        <v>40</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
-        <v>40</v>
-      </c>
-      <c r="G22" s="4">
-        <v>40</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="4">
-        <v>40</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>8</v>
-      </c>
-      <c r="G23" s="4">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="4">
-        <v>8</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4">
+      <c r="B37" s="88"/>
+      <c r="C37" s="90">
+        <v>4</v>
+      </c>
+      <c r="D37" s="90">
+        <v>4</v>
+      </c>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90">
+        <v>4</v>
+      </c>
+      <c r="G37" s="90">
+        <v>4</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90">
+        <v>4</v>
+      </c>
+      <c r="K37" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="101">
         <v>16</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D38" s="101">
+        <v>16</v>
+      </c>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101">
+        <v>16</v>
+      </c>
+      <c r="G38" s="101">
         <v>12</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>12</v>
-      </c>
-      <c r="G24" s="4">
-        <v>12</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="4">
-        <v>12</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4">
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101">
         <v>16</v>
       </c>
-      <c r="D25" s="4">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <v>16</v>
-      </c>
-      <c r="G25" s="4">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="4">
-        <v>16</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4">
+      <c r="K38" s="102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="94">
+        <v>4</v>
+      </c>
+      <c r="D39" s="94">
+        <v>4</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94">
+        <v>4</v>
+      </c>
+      <c r="G39" s="94">
+        <v>4</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94">
+        <v>4</v>
+      </c>
+      <c r="K39" s="95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A40" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C41" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="4">
-        <v>2</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4">
-        <v>8</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="4">
-        <v>4</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <v>16</v>
-      </c>
-      <c r="G30" s="4">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="4">
-        <v>16</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4">
-        <v>16</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="4">
-        <v>12</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
-        <v>8</v>
-      </c>
-      <c r="G32" s="4">
-        <v>8</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="4">
-        <v>12</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4">
-        <v>16</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
-        <v>12</v>
-      </c>
-      <c r="G33" s="4">
-        <v>16</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="4">
-        <v>16</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
-        <v>8</v>
-      </c>
-      <c r="G34" s="4">
-        <v>12</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="4">
-        <v>12</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4">
-        <v>8</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
-        <v>12</v>
-      </c>
-      <c r="G35" s="4">
-        <v>12</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="4">
-        <v>8</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <v>12</v>
-      </c>
-      <c r="G36" s="4">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="4">
-        <v>12</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
-        <v>4</v>
-      </c>
-      <c r="G37" s="4">
-        <v>4</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="4">
-        <v>4</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4">
-        <v>16</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <v>16</v>
-      </c>
-      <c r="G38" s="4">
-        <v>12</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="4">
-        <v>16</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <v>4</v>
-      </c>
-      <c r="G39" s="4">
-        <v>4</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="4">
-        <v>4</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A40" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C41" s="52" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C42" s="14" t="str">
+      <c r="C42" s="13" t="str">
         <f t="shared" ref="C42:H42" si="0">C2</f>
         <v>Jonathan Caro</v>
       </c>
-      <c r="D42" s="14" t="str">
+      <c r="D42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Mike Hatter</v>
       </c>
-      <c r="E42" s="14" t="str">
+      <c r="E42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Pablo Leon</v>
       </c>
-      <c r="F42" s="14" t="str">
+      <c r="F42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Sam Mathis</v>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Xiaodong Weng</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" thickBot="1">
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <f>SUMIF(K3:K39,C42,J3:J39)</f>
         <v>82</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <f>SUMIF(K3:K39,D42,J3:J39)</f>
         <v>82</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <f>SUMIF(K3:K39,E42,J3:J39)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <f>SUMIF(K3:K39,F42,J3:J39)</f>
         <v>90</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <f>SUMIF(K3:K39,G42,J3:J39)</f>
         <v>74</v>
       </c>
@@ -2897,1740 +2935,1591 @@
     </row>
     <row r="44" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="45" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="83"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="78"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="20" t="str">
+      <c r="A46" s="19" t="str">
         <f>A3</f>
         <v>As a designer, I want a final boss, decided by how quickly the player gets to the end.</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="80"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="75" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="75" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="75" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="20" t="str">
+      <c r="A50" s="19" t="str">
         <f>A4</f>
         <v>As a designer, I want an attract mode that attracts people.</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="80"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="75"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="75" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="75" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="77"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="86"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="81"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="20" t="str">
+      <c r="A54" s="19" t="str">
         <f>A5</f>
         <v>As a designer, I want spells to increase in power the more you use that type of spell</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="80"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="75"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="75" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="77"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="72"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="75" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="77"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="75" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="77"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="20" t="str">
+      <c r="A59" s="19" t="str">
         <f>A6</f>
         <v>As a designer, I want the enemies to be effected differently based on their type and spell type</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="80"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="75"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="75" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="77"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="77"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="72"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="77"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="20" t="str">
+      <c r="A63" s="19" t="str">
         <f>A7</f>
         <v>As a designer, I want the player to hit switches to progress through the level</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="80"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="75" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="77"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="75" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="77"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="72"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="75" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="20" t="str">
+      <c r="A67" s="19" t="str">
         <f>A8</f>
         <v>As a developer, I want Lava terrain to hurt the player</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="80"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="75" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="77"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="77"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="77"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="20" t="str">
+      <c r="A71" s="19" t="str">
         <f>A9</f>
         <v>As a developer, I want the Air Currents in the game that push the player around</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="75"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="75" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="77"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="77"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="72"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="77"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="20" t="str">
+      <c r="A75" s="19" t="str">
         <f>A10</f>
         <v>As a developer, I want the enemy spawner to respawn enemies</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="80"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="75"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="75" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="77"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="72"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="77"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="72"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="77"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="72"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A79" s="20" t="str">
+      <c r="A79" s="19" t="str">
         <f>A11</f>
         <v>As a developer, I want the game to be arcade machine compliant</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="80"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="75"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="75" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="77"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="72"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="75" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="77"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="72"/>
     </row>
     <row r="82" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="75" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="77"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="72"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="20" t="str">
+      <c r="A83" s="19" t="str">
         <f>A12</f>
         <v>As a developer, I want the particle engine to be complete</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="80"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="75"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="75" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="77"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="75" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="77"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="72"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="77"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="72"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="20" t="str">
+      <c r="A87" s="19" t="str">
         <f xml:space="preserve"> A13</f>
         <v>As a developer, I want the tier 1 fire spells done</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="80"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="75"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="75" t="s">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="77"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="72"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="77"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="72"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="77"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="72"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="20" t="str">
+      <c r="A91" s="19" t="str">
         <f xml:space="preserve"> A14</f>
         <v>As a developer, I want the tier 1 ice spells done</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="80"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="75"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="75" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="77"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="72"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="77"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="20" t="str">
+      <c r="A94" s="19" t="str">
         <f xml:space="preserve"> A15</f>
         <v>As a developer, I want the tier 1 wind spells done</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="80"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="75"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="90" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="92"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="87"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="92"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="87"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="92"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="87"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="20" t="str">
+      <c r="A98" s="19" t="str">
         <f>A16</f>
         <v>As a developer, I want tier 2 spells to rely on energy picked up in the game</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="68"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="69" t="s">
+      <c r="A99" s="54"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="71"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="87" t="s">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="89"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="84"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="72" t="s">
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="74"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="69"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="20" t="str">
+      <c r="A102" s="19" t="str">
         <f>A17</f>
         <v>As a developer, I want to implement a win/lose condition</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="68"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="69" t="s">
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="71"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="56"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="69" t="s">
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="71"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="66"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="74"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="69"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="20" t="str">
+      <c r="A106" s="19" t="str">
         <f>A18</f>
         <v>As a developer, I want water terrain to hurt the player and flood the level</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="68"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="56"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="69" t="s">
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="71"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="66"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="56"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="69" t="s">
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="71"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="66"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="74"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="69"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="20" t="str">
+      <c r="A110" s="19" t="str">
         <f>A19</f>
         <v>As a programmer, I want to implement a scoring system based on time and destruction</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="68"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="69" t="s">
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="71"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="66"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="69" t="s">
+      <c r="A112" s="54"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="71"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="66"/>
     </row>
     <row r="113" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="72" t="s">
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="74"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="69"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="20" t="str">
+      <c r="A114" s="19" t="str">
         <f>A20</f>
         <v>As a user, I want a free-fire mode while using the game pad</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="68"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="56"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="69" t="s">
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="71"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="66"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="69" t="s">
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="71"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="66"/>
     </row>
     <row r="117" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="73"/>
-      <c r="H117" s="74"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="69"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="20" t="str">
+      <c r="A118" s="19" t="str">
         <f>A21</f>
         <v>As a user, I want a mini-map to help me get around the level</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="68"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="56"/>
-      <c r="B119" s="56"/>
-      <c r="C119" s="69" t="s">
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="71"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="66"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="56"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="69" t="s">
+      <c r="A120" s="54"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="70"/>
-      <c r="H120" s="71"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="66"/>
     </row>
     <row r="121" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="72"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="74"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="69"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="20" t="str">
+      <c r="A122" s="19" t="str">
         <f>A22</f>
         <v xml:space="preserve">As a user, I want multiple earth spells </v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="68"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="56"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="69" t="s">
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="70"/>
-      <c r="H123" s="71"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="66"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="56"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="69" t="s">
+      <c r="A124" s="54"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="71"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="66"/>
     </row>
     <row r="125" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="72" t="s">
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="74"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="69"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="20" t="str">
+      <c r="A126" s="19" t="str">
         <f>A23</f>
         <v>As a user, I want multiple fire spells</v>
       </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="68"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="56"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="69" t="s">
+      <c r="A127" s="54"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="71"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="66"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="56"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="69" t="s">
+      <c r="A128" s="54"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="70"/>
-      <c r="E128" s="70"/>
-      <c r="F128" s="70"/>
-      <c r="G128" s="70"/>
-      <c r="H128" s="71"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="72" t="s">
+      <c r="A129" s="55"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="73"/>
-      <c r="H129" s="74"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="69"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="20" t="str">
+      <c r="A130" s="19" t="str">
         <f>A24</f>
         <v>As a user, I want multiple ice spells</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="68"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="69" t="s">
+      <c r="A131" s="57"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="70"/>
-      <c r="E131" s="70"/>
-      <c r="F131" s="70"/>
-      <c r="G131" s="70"/>
-      <c r="H131" s="71"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="66"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="69" t="s">
+      <c r="A132" s="57"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="70"/>
-      <c r="E132" s="70"/>
-      <c r="F132" s="70"/>
-      <c r="G132" s="70"/>
-      <c r="H132" s="71"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="66"/>
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="72" t="s">
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="74"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="69"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="20" t="str">
+      <c r="A134" s="19" t="str">
         <f>A25</f>
         <v>As a user, I want multiple wind spells</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="68"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="69" t="s">
+      <c r="A135" s="57"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="71"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="66"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="60"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="69" t="s">
+      <c r="A136" s="57"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="70"/>
-      <c r="H136" s="71"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="66"/>
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="72" t="s">
+      <c r="A137" s="58"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="74"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="69"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="20" t="str">
+      <c r="A138" s="19" t="str">
         <f>A26</f>
         <v>As a user, I want my option configurations saved auto-magically</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="68"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="69" t="s">
+      <c r="A139" s="57"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="71"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="66"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="60"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="69" t="s">
+      <c r="A140" s="57"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D140" s="70"/>
-      <c r="E140" s="70"/>
-      <c r="F140" s="70"/>
-      <c r="G140" s="70"/>
-      <c r="H140" s="71"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="66"/>
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A141" s="61"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="74"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="69"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="20" t="str">
+      <c r="A142" s="19" t="str">
         <f>A27</f>
         <v>As a user, I want my spells to cancel out hostile spells</v>
       </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="68"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="60"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="69" t="s">
+      <c r="A143" s="57"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="70"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="71"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="66"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="60"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="69" t="s">
+      <c r="A144" s="57"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="71"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="66"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="74"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="69"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="20" t="str">
+      <c r="A146" s="19" t="str">
         <f>A28</f>
         <v>As a user, I want the camera to function properly when playing with two players.</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="68"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="63"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="60"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="69" t="s">
+      <c r="A147" s="57"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="71"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="66"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="60"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="69" t="s">
+      <c r="A148" s="57"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="71"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="66"/>
     </row>
     <row r="149" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A149" s="61"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="72"/>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="74"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="69"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="20" t="str">
+      <c r="A150" s="19" t="str">
         <f>A30</f>
         <v>As a user, I want the spells of different elements to interact with each other</v>
       </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="67"/>
-      <c r="H150" s="68"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="61"/>
+      <c r="D150" s="62"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="63"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="60"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="69" t="s">
+      <c r="A151" s="57"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="70"/>
-      <c r="H151" s="71"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="66"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="60"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="69" t="s">
+      <c r="A152" s="57"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D152" s="70"/>
-      <c r="E152" s="70"/>
-      <c r="F152" s="70"/>
-      <c r="G152" s="70"/>
-      <c r="H152" s="71"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="66"/>
     </row>
     <row r="153" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A153" s="61"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="72" t="s">
+      <c r="A153" s="58"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="74"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="69"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="20" t="str">
+      <c r="A154" s="19" t="str">
         <f>A31</f>
         <v>As a user, I want the spells to have effects on the alternate terrain</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67"/>
-      <c r="H154" s="68"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="63"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="60"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="69" t="s">
+      <c r="A155" s="57"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="70"/>
-      <c r="G155" s="70"/>
-      <c r="H155" s="71"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="60"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="69" t="s">
+      <c r="A156" s="57"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="70"/>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="H156" s="71"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="72"/>
-      <c r="D157" s="73"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="73"/>
-      <c r="H157" s="74"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="69"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="20" t="str">
+      <c r="A158" s="19" t="str">
         <f>A32</f>
         <v>As a user, I want the state of the terrain to be saved</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="66"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="68"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="63"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="60"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="69" t="s">
+      <c r="A159" s="57"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D159" s="70"/>
-      <c r="E159" s="70"/>
-      <c r="F159" s="70"/>
-      <c r="G159" s="70"/>
-      <c r="H159" s="71"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="60"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="69" t="s">
+      <c r="A160" s="57"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="70"/>
-      <c r="G160" s="70"/>
-      <c r="H160" s="71"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="72"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="74"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="69"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="20" t="str">
+      <c r="A162" s="19" t="str">
         <f>A33</f>
         <v>As a user, I want to play different multiplayer game modes such as co-op and death-match</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="68"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="61"/>
+      <c r="D162" s="62"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="62"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="63"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="60"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="69" t="s">
+      <c r="A163" s="57"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="70"/>
-      <c r="H163" s="71"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="60"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="69" t="s">
+      <c r="A164" s="57"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D164" s="70"/>
-      <c r="E164" s="70"/>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70"/>
-      <c r="H164" s="71"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
+      <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A165" s="61"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="72" t="s">
+      <c r="A165" s="58"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="74"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="69"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="20" t="str">
+      <c r="A166" s="19" t="str">
         <f>A34</f>
         <v>As a user, I want to transition between levels</v>
       </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="66"/>
-      <c r="D166" s="67"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="67"/>
-      <c r="H166" s="68"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="61"/>
+      <c r="D166" s="62"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="62"/>
+      <c r="G166" s="62"/>
+      <c r="H166" s="63"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="60"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="69" t="s">
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="71"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+      <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="60"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="69" t="s">
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="70"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70"/>
-      <c r="G168" s="70"/>
-      <c r="H168" s="71"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="73"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="74"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="69"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="20" t="str">
+      <c r="A170" s="19" t="str">
         <f>A35</f>
         <v>As a user, I would like to have a HUD.</v>
       </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="68"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="61"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="63"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="60"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="69" t="s">
+      <c r="A171" s="57"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
-      <c r="F171" s="70"/>
-      <c r="G171" s="70"/>
-      <c r="H171" s="71"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="60"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="69" t="s">
+      <c r="A172" s="57"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D172" s="70"/>
-      <c r="E172" s="70"/>
-      <c r="F172" s="70"/>
-      <c r="G172" s="70"/>
-      <c r="H172" s="71"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="65"/>
+      <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="72" t="s">
+      <c r="A173" s="58"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="74"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="69"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="20" t="str">
-        <f>A36</f>
-        <v>As a Designer, I want the Fire Enemy to be different from the other enemies</v>
-      </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="67"/>
-      <c r="H174" s="68"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="62"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="71"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="62"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D176" s="70"/>
-      <c r="E176" s="70"/>
-      <c r="F176" s="70"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="71"/>
-    </row>
-    <row r="177" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A177" s="63"/>
-      <c r="B177" s="63"/>
-      <c r="C177" s="72"/>
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="74"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="20" t="str">
-        <f>A37</f>
-        <v>As a Designer, I want the Ice Enemy to be different from the other enemies</v>
-      </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="66"/>
-      <c r="D178" s="67"/>
-      <c r="E178" s="67"/>
-      <c r="F178" s="67"/>
-      <c r="G178" s="67"/>
-      <c r="H178" s="68"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="64"/>
-      <c r="B179" s="64"/>
-      <c r="C179" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="D179" s="70"/>
-      <c r="E179" s="70"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="70"/>
-      <c r="H179" s="71"/>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="64"/>
-      <c r="B180" s="64"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="70"/>
-      <c r="E180" s="70"/>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70"/>
-      <c r="H180" s="71"/>
-    </row>
-    <row r="181" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A181" s="65"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="72"/>
-      <c r="D181" s="73"/>
-      <c r="E181" s="73"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="73"/>
-      <c r="H181" s="74"/>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="20" t="str">
-        <f>A38</f>
-        <v>As a Designer, I want the Wind Enemy to be different from the other enemies</v>
-      </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="66"/>
-      <c r="D182" s="67"/>
-      <c r="E182" s="67"/>
-      <c r="F182" s="67"/>
-      <c r="G182" s="67"/>
-      <c r="H182" s="68"/>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="64"/>
-      <c r="B183" s="64"/>
-      <c r="C183" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="71"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="64"/>
-      <c r="B184" s="64"/>
-      <c r="C184" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D184" s="70"/>
-      <c r="E184" s="70"/>
-      <c r="F184" s="70"/>
-      <c r="G184" s="70"/>
-      <c r="H184" s="71"/>
-    </row>
-    <row r="185" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A185" s="65"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="72"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="73"/>
-      <c r="F185" s="73"/>
-      <c r="G185" s="73"/>
-      <c r="H185" s="74"/>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="20" t="str">
+      <c r="A174" s="19" t="str">
         <f>A39</f>
         <v>As a Designer, I want the Earth Enemy to be different from the other enemies</v>
       </c>
-      <c r="B186" s="20"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="68"/>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="64"/>
-      <c r="B187" s="64"/>
-      <c r="C187" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="D187" s="70"/>
-      <c r="E187" s="70"/>
-      <c r="F187" s="70"/>
-      <c r="G187" s="70"/>
-      <c r="H187" s="71"/>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="64"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="D188" s="70"/>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70"/>
-      <c r="G188" s="70"/>
-      <c r="H188" s="71"/>
-    </row>
-    <row r="189" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A189" s="65"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="72"/>
-      <c r="D189" s="73"/>
-      <c r="E189" s="73"/>
-      <c r="F189" s="73"/>
-      <c r="G189" s="73"/>
-      <c r="H189" s="74"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="62"/>
+      <c r="E174" s="62"/>
+      <c r="F174" s="62"/>
+      <c r="G174" s="62"/>
+      <c r="H174" s="63"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="59"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="66"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="59"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D176" s="65"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="66"/>
+    </row>
+    <row r="177" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="69"/>
     </row>
   </sheetData>
   <sortState ref="A4:A36">
     <sortCondition ref="A36"/>
   </sortState>
-  <mergeCells count="145">
-    <mergeCell ref="C187:H187"/>
-    <mergeCell ref="C188:H188"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="C180:H180"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="C182:H182"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="C184:H184"/>
-    <mergeCell ref="C185:H185"/>
-    <mergeCell ref="C186:H186"/>
+  <mergeCells count="133">
     <mergeCell ref="C97:H97"/>
     <mergeCell ref="C96:H96"/>
     <mergeCell ref="C62:H62"/>
